--- a/capiq_data/in_process_data/IQ972190.xlsx
+++ b/capiq_data/in_process_data/IQ972190.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71566DC3-24ED-4BBA-9380-6128E3206DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A445E004-E5D6-4B15-9C6E-5247A3A3D640}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"f8dfc513-0289-421c-847c-a380010d10ef"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"b78aaf40-59dd-4d19-bb14-024e9e16aa9d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
     <t>FQ12011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ12021</t>
+  </si>
+  <si>
+    <t>FQ22021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>534.71400000000006</v>
+        <v>419.53899999999999</v>
       </c>
       <c r="D2">
-        <v>6045.65</v>
+        <v>2881.6979999999999</v>
       </c>
       <c r="E2">
-        <v>4201.415</v>
+        <v>2428.7310000000002</v>
       </c>
       <c r="F2">
-        <v>1944.48</v>
+        <v>1322.2139999999999</v>
       </c>
       <c r="G2">
-        <v>9469.7099999999991</v>
+        <v>4080.4119999999998</v>
       </c>
       <c r="H2">
-        <v>12868.874</v>
+        <v>5474.2929999999997</v>
       </c>
       <c r="I2">
-        <v>824.35400000000004</v>
+        <v>185.88800000000001</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>97.480999999999995</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>213.30699999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.335</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6446.8509999999997</v>
+        <v>3219.9349999999999</v>
       </c>
       <c r="O2">
-        <v>9557.7639999999992</v>
+        <v>3526.0219999999999</v>
       </c>
       <c r="P2">
-        <v>0.33200000000000002</v>
+        <v>340.709</v>
       </c>
       <c r="Q2">
-        <v>-677.84</v>
+        <v>-5.7549999999999999</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="S2">
-        <v>211000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3311.11</v>
+        <v>1948.271</v>
       </c>
       <c r="U2">
-        <v>4160.4520000000002</v>
+        <v>1342.4059999999999</v>
       </c>
       <c r="V2">
-        <v>106.399</v>
+        <v>679.94500000000005</v>
       </c>
       <c r="W2">
-        <v>-320.64999999999998</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-703.60699999999997</v>
+        <v>-577.15899999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-3.4000000000000002E-2</v>
+        <v>133.52199999999999</v>
       </c>
       <c r="AA2">
-        <v>534.71400000000006</v>
+        <v>419.53899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>503.017</v>
+        <v>-190.79499999999999</v>
       </c>
       <c r="D3">
-        <v>6053.6210000000001</v>
+        <v>2953.2890000000002</v>
       </c>
       <c r="E3">
-        <v>4445.4790000000003</v>
+        <v>2395.8290000000002</v>
       </c>
       <c r="F3">
-        <v>1917.2239999999999</v>
+        <v>1387.002</v>
       </c>
       <c r="G3">
-        <v>10279.277</v>
+        <v>3475.5659999999998</v>
       </c>
       <c r="H3">
-        <v>13893.673000000001</v>
+        <v>4929.277</v>
       </c>
       <c r="I3">
-        <v>846.36500000000001</v>
+        <v>157.74</v>
       </c>
       <c r="J3">
-        <v>4.1289999999999996</v>
+        <v>31.22</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>528.08299999999997</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6617.0959999999995</v>
+        <v>4870.0709999999999</v>
       </c>
       <c r="O3">
-        <v>9845.902</v>
+        <v>6185.06</v>
       </c>
       <c r="P3">
-        <v>4.5510000000000002</v>
+        <v>562.42499999999995</v>
       </c>
       <c r="Q3">
-        <v>517.09199999999998</v>
+        <v>-618.69799999999998</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="S3">
-        <v>215000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4047.7710000000002</v>
+        <v>-1255.7829999999999</v>
       </c>
       <c r="U3">
-        <v>4677.5439999999999</v>
+        <v>723.70799999999997</v>
       </c>
       <c r="V3">
-        <v>601.10400000000004</v>
+        <v>601.44000000000005</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-46.892000000000003</v>
+        <v>-962.15099999999995</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1E-3</v>
+        <v>65.272999999999996</v>
       </c>
       <c r="AA3">
-        <v>503.017</v>
+        <v>-190.79499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>628.01300000000003</v>
+        <v>-369.78199999999998</v>
       </c>
       <c r="D4">
-        <v>6720.1149999999998</v>
+        <v>2777.4349999999999</v>
       </c>
       <c r="E4">
-        <v>4696.165</v>
+        <v>2230.614</v>
       </c>
       <c r="F4">
-        <v>2309.6280000000002</v>
+        <v>1087.5830000000001</v>
       </c>
       <c r="G4">
-        <v>11147.26</v>
+        <v>4579.6369999999997</v>
       </c>
       <c r="H4">
-        <v>14903.968999999999</v>
+        <v>6061.3559999999998</v>
       </c>
       <c r="I4">
-        <v>862.65099999999995</v>
+        <v>371.79399999999998</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>189.87200000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,247 +1058,247 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7372.6660000000002</v>
+        <v>4178.82</v>
       </c>
       <c r="O4">
-        <v>10727.537</v>
+        <v>5371.2420000000002</v>
       </c>
       <c r="P4">
-        <v>4.6210000000000004</v>
+        <v>191.75899999999999</v>
       </c>
       <c r="Q4">
-        <v>579.14</v>
+        <v>1156.375</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="S4">
-        <v>223000</v>
+        <v>75000</v>
       </c>
       <c r="T4">
-        <v>4176.4319999999998</v>
+        <v>690.11400000000003</v>
       </c>
       <c r="U4">
-        <v>5256.6840000000002</v>
+        <v>1880.0830000000001</v>
       </c>
       <c r="V4">
-        <v>1352.96</v>
+        <v>286.27800000000002</v>
       </c>
       <c r="W4">
-        <v>-322.99200000000002</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-756.47</v>
+        <v>1134.412</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.20699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="AA4">
-        <v>628.01300000000003</v>
+        <v>-369.78199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>611.93299999999999</v>
+        <v>81.676000000000002</v>
       </c>
       <c r="D5">
-        <v>6687.65</v>
+        <v>2988.63</v>
       </c>
       <c r="E5">
-        <v>4621.7920000000004</v>
+        <v>2464.7370000000001</v>
       </c>
       <c r="F5">
-        <v>2215.3870000000002</v>
+        <v>1182.4490000000001</v>
       </c>
       <c r="G5">
-        <v>11471.183000000001</v>
+        <v>4073.5430000000001</v>
       </c>
       <c r="H5">
-        <v>15731.51</v>
+        <v>5422.6710000000003</v>
       </c>
       <c r="I5">
-        <v>949.25</v>
+        <v>360.72399999999999</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.3620000000000001</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>217.017</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-122.28700000000001</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="N5">
-        <v>7906.5889999999999</v>
+        <v>3360.797</v>
       </c>
       <c r="O5">
-        <v>11380.638000000001</v>
+        <v>4543.5309999999999</v>
       </c>
       <c r="P5">
-        <v>4.4189999999999996</v>
+        <v>222.804</v>
       </c>
       <c r="Q5">
-        <v>444.39400000000001</v>
+        <v>-750.56600000000003</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="S5">
-        <v>236000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>4350.8720000000003</v>
+        <v>879.14</v>
       </c>
       <c r="U5">
-        <v>5701.0780000000004</v>
+        <v>1129.5170000000001</v>
       </c>
       <c r="V5">
-        <v>1381.2760000000001</v>
+        <v>-197.39</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-614.53499999999997</v>
+        <v>-496.404</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1E-3</v>
+        <v>8.3610000000000007</v>
       </c>
       <c r="AA5">
-        <v>611.93299999999999</v>
+        <v>81.676000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>642.08600000000001</v>
+        <v>10.611000000000001</v>
       </c>
       <c r="D6">
-        <v>7074.4970000000003</v>
+        <v>2913.2890000000002</v>
       </c>
       <c r="E6">
-        <v>4815.0969999999998</v>
+        <v>2309.1819999999998</v>
       </c>
       <c r="F6">
-        <v>2251.54</v>
+        <v>1205.181</v>
       </c>
       <c r="G6">
-        <v>10992.718999999999</v>
+        <v>3859.0549999999998</v>
       </c>
       <c r="H6">
-        <v>15290.844999999999</v>
+        <v>5199.07</v>
       </c>
       <c r="I6">
-        <v>898.11300000000006</v>
+        <v>409.678</v>
       </c>
       <c r="J6">
-        <v>1.62</v>
+        <v>4.2629999999999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>157.864</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-3.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>7575.125</v>
+        <v>3007.386</v>
       </c>
       <c r="O6">
-        <v>11071.661</v>
+        <v>4369.7110000000002</v>
       </c>
       <c r="P6">
-        <v>6.3819999999999997</v>
+        <v>164.922</v>
       </c>
       <c r="Q6">
-        <v>-609.17200000000003</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="S6">
-        <v>244000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4219.1840000000002</v>
+        <v>829.35900000000004</v>
       </c>
       <c r="U6">
-        <v>5091.9059999999999</v>
+        <v>1131.431</v>
       </c>
       <c r="V6">
-        <v>475.25799999999998</v>
+        <v>453.26600000000002</v>
       </c>
       <c r="W6">
-        <v>-474.89600000000002</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-587.61699999999996</v>
+        <v>-428.82799999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>6.2E-2</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="AA6">
-        <v>642.08600000000001</v>
+        <v>10.611000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>643.923</v>
+        <v>114.461</v>
       </c>
       <c r="D7">
-        <v>6797.25</v>
+        <v>2980.6779999999999</v>
       </c>
       <c r="E7">
-        <v>4774.7579999999998</v>
+        <v>2324.817</v>
       </c>
       <c r="F7">
-        <v>2116.366</v>
+        <v>1227.7560000000001</v>
       </c>
       <c r="G7">
-        <v>11554.68</v>
+        <v>4074.5920000000001</v>
       </c>
       <c r="H7">
-        <v>15808.096</v>
+        <v>5434.9620000000004</v>
       </c>
       <c r="I7">
-        <v>892.43600000000004</v>
+        <v>361.32100000000003</v>
       </c>
       <c r="J7">
-        <v>1.2010000000000001</v>
+        <v>3.915</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>93.885999999999996</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>7537.8509999999997</v>
+        <v>3033.973</v>
       </c>
       <c r="O7">
-        <v>10814.950999999999</v>
+        <v>4365.5349999999999</v>
       </c>
       <c r="P7">
-        <v>5.8540000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="Q7">
-        <v>476.84</v>
+        <v>-17.934999999999999</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="S7">
-        <v>246000</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>4993.1450000000004</v>
+        <v>1069.4269999999999</v>
       </c>
       <c r="U7">
-        <v>5568.7460000000001</v>
+        <v>1113.4960000000001</v>
       </c>
       <c r="V7">
-        <v>857.81299999999999</v>
+        <v>290.67200000000003</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-378.28199999999998</v>
+        <v>-243.81200000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AA7">
-        <v>643.923</v>
+        <v>114.461</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>689.21900000000005</v>
+        <v>38.146999999999998</v>
       </c>
       <c r="D8">
-        <v>7154.69</v>
+        <v>2691.672</v>
       </c>
       <c r="E8">
-        <v>4679.4369999999999</v>
+        <v>2104.8560000000002</v>
       </c>
       <c r="F8">
-        <v>2370.9050000000002</v>
+        <v>1061.9079999999999</v>
       </c>
       <c r="G8">
-        <v>11458.026</v>
+        <v>4052.3110000000001</v>
       </c>
       <c r="H8">
-        <v>15535.915000000001</v>
+        <v>5478.9480000000003</v>
       </c>
       <c r="I8">
-        <v>808.67399999999998</v>
+        <v>450.20800000000003</v>
       </c>
       <c r="J8">
-        <v>4.9000000000000002E-2</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>57.921999999999997</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,247 +1390,247 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7593.067</v>
+        <v>3327.0619999999999</v>
       </c>
       <c r="O8">
-        <v>10947.822</v>
+        <v>4520.9260000000004</v>
       </c>
       <c r="P8">
-        <v>5.43</v>
+        <v>66.527000000000001</v>
       </c>
       <c r="Q8">
-        <v>59.912999999999997</v>
+        <v>203.48</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="S8">
-        <v>249000</v>
+        <v>75000</v>
       </c>
       <c r="T8">
-        <v>4588.0929999999998</v>
+        <v>958.02200000000005</v>
       </c>
       <c r="U8">
-        <v>5628.6589999999997</v>
+        <v>1316.9760000000001</v>
       </c>
       <c r="V8">
-        <v>1215.5899999999999</v>
+        <v>516.83399999999995</v>
       </c>
       <c r="W8">
-        <v>-475.96100000000001</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-949.97199999999998</v>
+        <v>-245.71100000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>4.9729999999999999</v>
+        <v>4.0940000000000003</v>
       </c>
       <c r="AA8">
-        <v>689.21900000000005</v>
+        <v>38.146999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>578.28200000000004</v>
+        <v>126.871</v>
       </c>
       <c r="D9">
-        <v>6835.893</v>
+        <v>2929.9580000000001</v>
       </c>
       <c r="E9">
-        <v>4480.7110000000002</v>
+        <v>2283.223</v>
       </c>
       <c r="F9">
-        <v>2248.89</v>
+        <v>1155.761</v>
       </c>
       <c r="G9">
-        <v>12587.931</v>
+        <v>4275.1509999999998</v>
       </c>
       <c r="H9">
-        <v>16665.415000000001</v>
+        <v>5648.0159999999996</v>
       </c>
       <c r="I9">
-        <v>903.84699999999998</v>
+        <v>378.815</v>
       </c>
       <c r="J9">
-        <v>2.1999999999999999E-2</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>55.326000000000001</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-28.927</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-2.2490000000000001</v>
       </c>
       <c r="N9">
-        <v>8109.2049999999999</v>
+        <v>3198.5210000000002</v>
       </c>
       <c r="O9">
-        <v>12040.986999999999</v>
+        <v>4391.4579999999996</v>
       </c>
       <c r="P9">
-        <v>3.3000000000000002E-2</v>
+        <v>61.682000000000002</v>
       </c>
       <c r="Q9">
-        <v>1011.867</v>
+        <v>156.667</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="S9">
-        <v>257000</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>4624.4279999999999</v>
+        <v>1256.558</v>
       </c>
       <c r="U9">
-        <v>6640.5259999999998</v>
+        <v>1473.643</v>
       </c>
       <c r="V9">
-        <v>1708.191</v>
+        <v>198.30699999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-642.98400000000004</v>
+        <v>-66.2</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>45.076000000000001</v>
       </c>
       <c r="AA9">
-        <v>578.28200000000004</v>
+        <v>126.871</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>698.81700000000001</v>
+        <v>118.721</v>
       </c>
       <c r="D10">
-        <v>7219.9610000000002</v>
+        <v>2826.1959999999999</v>
       </c>
       <c r="E10">
-        <v>4989.47</v>
+        <v>2315.663</v>
       </c>
       <c r="F10">
-        <v>2366.1930000000002</v>
+        <v>1009.49</v>
       </c>
       <c r="G10">
-        <v>12013.526</v>
+        <v>4502.6310000000003</v>
       </c>
       <c r="H10">
-        <v>16408.02</v>
+        <v>5851.4949999999999</v>
       </c>
       <c r="I10">
-        <v>890.23299999999995</v>
+        <v>363.02199999999999</v>
       </c>
       <c r="J10">
-        <v>1.9E-2</v>
+        <v>3.8239999999999998</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>52.107999999999997</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>7977.3590000000004</v>
+        <v>3299.625</v>
       </c>
       <c r="O10">
-        <v>11414.048000000001</v>
+        <v>4569.6120000000001</v>
       </c>
       <c r="P10">
-        <v>3.2000000000000001E-2</v>
+        <v>58.914999999999999</v>
       </c>
       <c r="Q10">
-        <v>-961.63400000000001</v>
+        <v>210.93299999999999</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="S10">
-        <v>259000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>4993.9719999999998</v>
+        <v>1281.883</v>
       </c>
       <c r="U10">
-        <v>5678.8919999999998</v>
+        <v>1684.576</v>
       </c>
       <c r="V10">
-        <v>-108.815</v>
+        <v>413.565</v>
       </c>
       <c r="W10">
-        <v>-560.13499999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-577.66200000000003</v>
+        <v>-213.70400000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2.3420000000000001</v>
       </c>
       <c r="AA10">
-        <v>698.81700000000001</v>
+        <v>118.721</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1101.8019999999999</v>
+        <v>132.14099999999999</v>
       </c>
       <c r="D11">
-        <v>7058.0420000000004</v>
+        <v>3044.8359999999998</v>
       </c>
       <c r="E11">
-        <v>4975.902</v>
+        <v>2401.393</v>
       </c>
       <c r="F11">
-        <v>2230.3629999999998</v>
+        <v>1105.761</v>
       </c>
       <c r="G11">
-        <v>12016.949000000001</v>
+        <v>4972.5450000000001</v>
       </c>
       <c r="H11">
-        <v>16358.73</v>
+        <v>6367.2070000000003</v>
       </c>
       <c r="I11">
-        <v>883.048</v>
+        <v>434.12299999999999</v>
       </c>
       <c r="J11">
-        <v>1.6E-2</v>
+        <v>13.24</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>7365.4740000000002</v>
+        <v>3493.6239999999998</v>
       </c>
       <c r="O11">
-        <v>10418.859</v>
+        <v>4828.32</v>
       </c>
       <c r="P11">
-        <v>2.9000000000000001E-2</v>
+        <v>68.841999999999999</v>
       </c>
       <c r="Q11">
-        <v>-42.805999999999997</v>
+        <v>277.61799999999999</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="S11">
-        <v>261000</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>5939.8710000000001</v>
+        <v>1538.8869999999999</v>
       </c>
       <c r="U11">
-        <v>5636.0860000000002</v>
+        <v>1962.194</v>
       </c>
       <c r="V11">
-        <v>634.22400000000005</v>
+        <v>467.00700000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-465.42399999999998</v>
+        <v>-176.43199999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>55.353999999999999</v>
       </c>
       <c r="AA11">
-        <v>1101.8019999999999</v>
+        <v>132.14099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>810.25900000000001</v>
+        <v>120.505</v>
       </c>
       <c r="D12">
-        <v>7198.14</v>
+        <v>3017.009</v>
       </c>
       <c r="E12">
-        <v>4850.2849999999999</v>
+        <v>2244.6680000000001</v>
       </c>
       <c r="F12">
-        <v>2438.0189999999998</v>
+        <v>1038.9280000000001</v>
       </c>
       <c r="G12">
-        <v>12078.919</v>
+        <v>5037.2110000000002</v>
       </c>
       <c r="H12">
-        <v>16523.758000000002</v>
+        <v>6459.24</v>
       </c>
       <c r="I12">
-        <v>922.65800000000002</v>
+        <v>573.20100000000002</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.955</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,164 +1722,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7630.6220000000003</v>
+        <v>3308.3229999999999</v>
       </c>
       <c r="O12">
-        <v>10713.698</v>
+        <v>4703.6040000000003</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>60.116999999999997</v>
       </c>
       <c r="Q12">
-        <v>301.99900000000002</v>
+        <v>369.96699999999998</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="S12">
-        <v>266000</v>
+        <v>83000</v>
       </c>
       <c r="T12">
-        <v>5810.06</v>
+        <v>1755.636</v>
       </c>
       <c r="U12">
-        <v>5938.085</v>
+        <v>2332.1610000000001</v>
       </c>
       <c r="V12">
-        <v>1502.2090000000001</v>
+        <v>465.46600000000001</v>
       </c>
       <c r="W12">
-        <v>-561.60299999999995</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-998.90700000000004</v>
+        <v>-66.53</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.018</v>
       </c>
       <c r="AA12">
-        <v>810.25800000000004</v>
+        <v>120.505</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>671</v>
+        <v>174.34</v>
       </c>
       <c r="D13">
-        <v>7086.6670000000004</v>
+        <v>3261.585</v>
       </c>
       <c r="E13">
-        <v>4846.5739999999996</v>
+        <v>2490.364</v>
       </c>
       <c r="F13">
-        <v>2349.6</v>
+        <v>1110.6949999999999</v>
       </c>
       <c r="G13">
-        <v>11844.178</v>
+        <v>5252.37</v>
       </c>
       <c r="H13">
-        <v>16867.048999999999</v>
+        <v>6703.2659999999996</v>
       </c>
       <c r="I13">
-        <v>961.851</v>
+        <v>496.80900000000003</v>
       </c>
       <c r="J13">
-        <v>25.6</v>
+        <v>13.728999999999999</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.655000000000001</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-36.823</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-1.1160000000000001</v>
       </c>
       <c r="N13">
-        <v>8160.99</v>
+        <v>3450.6129999999998</v>
       </c>
       <c r="O13">
-        <v>11439.22</v>
+        <v>4818.5829999999996</v>
       </c>
       <c r="P13">
-        <v>25.6</v>
+        <v>49.942999999999998</v>
       </c>
       <c r="Q13">
-        <v>-306.2</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="S13">
-        <v>275000</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>5427.8289999999997</v>
+        <v>1884.683</v>
       </c>
       <c r="U13">
-        <v>5631.8850000000002</v>
+        <v>2329.6509999999998</v>
       </c>
       <c r="V13">
-        <v>1275.51</v>
+        <v>127.59699999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-1023.636</v>
+        <v>-104.001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>5.5350000000000001</v>
       </c>
       <c r="AA13">
-        <v>671</v>
+        <v>174.34</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>751.846</v>
+        <v>123.089</v>
       </c>
       <c r="D14">
-        <v>7358.7489999999998</v>
+        <v>3302.2089999999998</v>
       </c>
       <c r="E14">
-        <v>5232.58</v>
+        <v>2505.4670000000001</v>
       </c>
       <c r="F14">
-        <v>2449.3470000000002</v>
+        <v>1089.662</v>
       </c>
       <c r="G14">
-        <v>11291.459000000001</v>
+        <v>5882.62</v>
       </c>
       <c r="H14">
-        <v>16515.937999999998</v>
+        <v>7518.9970000000003</v>
       </c>
       <c r="I14">
-        <v>982.73299999999995</v>
+        <v>513.66899999999998</v>
       </c>
       <c r="J14">
-        <v>25.943000000000001</v>
+        <v>13.577999999999999</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>36.090000000000003</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>7828.7430000000004</v>
+        <v>4045.47</v>
       </c>
       <c r="O14">
-        <v>11099.677</v>
+        <v>5413.75</v>
       </c>
       <c r="P14">
-        <v>25.943000000000001</v>
+        <v>51.598999999999997</v>
       </c>
       <c r="Q14">
-        <v>-1104.6869999999999</v>
+        <v>523.96400000000006</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="S14">
-        <v>281000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>5416.2610000000004</v>
+        <v>2105.2469999999998</v>
       </c>
       <c r="U14">
-        <v>4527.1980000000003</v>
+        <v>2853.6149999999998</v>
       </c>
       <c r="V14">
-        <v>181.233</v>
+        <v>865.89800000000002</v>
       </c>
       <c r="W14">
-        <v>-630.23400000000004</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-1138.5160000000001</v>
+        <v>-39.942999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-302.483</v>
       </c>
       <c r="AA14">
-        <v>751.846</v>
+        <v>123.089</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>671.3</v>
+        <v>210.40899999999999</v>
       </c>
       <c r="D15">
-        <v>7130.6670000000004</v>
+        <v>3686.6619999999998</v>
       </c>
       <c r="E15">
-        <v>5318.6840000000002</v>
+        <v>2638.9079999999999</v>
       </c>
       <c r="F15">
-        <v>2230.1419999999998</v>
+        <v>1306.875</v>
       </c>
       <c r="G15">
-        <v>10633.88</v>
+        <v>6913.9740000000002</v>
       </c>
       <c r="H15">
-        <v>16357.209000000001</v>
+        <v>8671.9279999999999</v>
       </c>
       <c r="I15">
-        <v>936.31500000000005</v>
+        <v>529.98900000000003</v>
       </c>
       <c r="J15">
-        <v>26.321999999999999</v>
+        <v>3.0760000000000001</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>45.67</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>7288.3580000000002</v>
+        <v>4277.92</v>
       </c>
       <c r="O15">
-        <v>10570.522000000001</v>
+        <v>5491.192</v>
       </c>
       <c r="P15">
-        <v>26.489000000000001</v>
+        <v>60.482999999999997</v>
       </c>
       <c r="Q15">
-        <v>-846.92399999999998</v>
+        <v>661.03200000000004</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="S15">
-        <v>289000</v>
+        <v>95000</v>
       </c>
       <c r="T15">
-        <v>5786.6869999999999</v>
+        <v>3180.7359999999999</v>
       </c>
       <c r="U15">
-        <v>3680.2739999999999</v>
+        <v>3514.6469999999999</v>
       </c>
       <c r="V15">
-        <v>292.38</v>
+        <v>369.13900000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-576.07899999999995</v>
+        <v>735.76199999999994</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-307.74700000000001</v>
       </c>
       <c r="AA15">
-        <v>671.3</v>
+        <v>210.40899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>817.33600000000001</v>
+        <v>182.99</v>
       </c>
       <c r="D16">
-        <v>7735.6379999999999</v>
+        <v>3423.107</v>
       </c>
       <c r="E16">
-        <v>5570.0609999999997</v>
+        <v>2712.0810000000001</v>
       </c>
       <c r="F16">
-        <v>2536.357</v>
+        <v>1109.085</v>
       </c>
       <c r="G16">
-        <v>11134.692999999999</v>
+        <v>6139.1940000000004</v>
       </c>
       <c r="H16">
-        <v>17002.383999999998</v>
+        <v>8013.4840000000004</v>
       </c>
       <c r="I16">
-        <v>957.63300000000004</v>
+        <v>523.93100000000004</v>
       </c>
       <c r="J16">
-        <v>26.533999999999999</v>
+        <v>32.161000000000001</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.103000000000002</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,164 +2054,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7616.1679999999997</v>
+        <v>4393.7889999999998</v>
       </c>
       <c r="O16">
-        <v>10857.085999999999</v>
+        <v>5600.7150000000001</v>
       </c>
       <c r="P16">
-        <v>26.672999999999998</v>
+        <v>68.876000000000005</v>
       </c>
       <c r="Q16">
-        <v>368.58499999999998</v>
+        <v>-961.68899999999996</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="S16">
-        <v>293000</v>
+        <v>100000</v>
       </c>
       <c r="T16">
-        <v>6145.2979999999998</v>
+        <v>2412.7689999999998</v>
       </c>
       <c r="U16">
-        <v>4048.8589999999999</v>
+        <v>2552.9580000000001</v>
       </c>
       <c r="V16">
-        <v>1363.26</v>
+        <v>393.315</v>
       </c>
       <c r="W16">
-        <v>-624.68200000000002</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-865.98</v>
+        <v>-1279.5029999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AA16">
-        <v>817.33600000000001</v>
+        <v>182.99</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>701.01599999999996</v>
+        <v>196.273</v>
       </c>
       <c r="D17">
-        <v>7777.34</v>
+        <v>3730.355</v>
       </c>
       <c r="E17">
-        <v>5663.3339999999998</v>
+        <v>3314.3589999999999</v>
       </c>
       <c r="F17">
-        <v>2468.62</v>
+        <v>1214.9159999999999</v>
       </c>
       <c r="G17">
-        <v>11904.441999999999</v>
+        <v>6913.4880000000003</v>
       </c>
       <c r="H17">
-        <v>17930.452000000001</v>
+        <v>8912.2209999999995</v>
       </c>
       <c r="I17">
-        <v>1064.2280000000001</v>
+        <v>733.11199999999997</v>
       </c>
       <c r="J17">
-        <v>26.402999999999999</v>
+        <v>1.508</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.765000000000001</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-11.427</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-1.1970000000000001</v>
       </c>
       <c r="N17">
-        <v>8158.0789999999997</v>
+        <v>4766.7049999999999</v>
       </c>
       <c r="O17">
-        <v>11645.115</v>
+        <v>6047.6689999999999</v>
       </c>
       <c r="P17">
-        <v>26.733000000000001</v>
+        <v>39.997999999999998</v>
       </c>
       <c r="Q17">
-        <v>872.44600000000003</v>
+        <v>-279.43599999999998</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="S17">
-        <v>305000</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>6285.3370000000004</v>
+        <v>2864.5520000000001</v>
       </c>
       <c r="U17">
-        <v>4921.3050000000003</v>
+        <v>2273.5219999999999</v>
       </c>
       <c r="V17">
-        <v>1649.212</v>
+        <v>-60.883000000000003</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-584.84100000000001</v>
+        <v>68.902000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-338.029</v>
       </c>
       <c r="AA17">
-        <v>701.01599999999996</v>
+        <v>196.273</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>831.53</v>
+        <v>209.786</v>
       </c>
       <c r="D18">
-        <v>7895.7150000000001</v>
+        <v>3813.5219999999999</v>
       </c>
       <c r="E18">
-        <v>5654.7280000000001</v>
+        <v>3275.6849999999999</v>
       </c>
       <c r="F18">
-        <v>2539.29</v>
+        <v>1174.5719999999999</v>
       </c>
       <c r="G18">
-        <v>11576.245000000001</v>
+        <v>7346.0479999999998</v>
       </c>
       <c r="H18">
-        <v>17630.032999999999</v>
+        <v>9342.8389999999999</v>
       </c>
       <c r="I18">
-        <v>947.27</v>
+        <v>734.995</v>
       </c>
       <c r="J18">
-        <v>26.786000000000001</v>
+        <v>36.735999999999997</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>33.012</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>8137.4030000000002</v>
+        <v>4954.5690000000004</v>
       </c>
       <c r="O18">
-        <v>11613.669</v>
+        <v>6255.7309999999998</v>
       </c>
       <c r="P18">
-        <v>26.79</v>
+        <v>82.340999999999994</v>
       </c>
       <c r="Q18">
-        <v>-448.95800000000003</v>
+        <v>786.68100000000004</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="S18">
-        <v>319000</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>6016.3639999999996</v>
+        <v>3087.1080000000002</v>
       </c>
       <c r="U18">
-        <v>4472.3469999999998</v>
+        <v>3060.203</v>
       </c>
       <c r="V18">
-        <v>872.9</v>
+        <v>786.89</v>
       </c>
       <c r="W18">
-        <v>-678.73599999999999</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-1126.877</v>
+        <v>-193.501</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>252.405</v>
       </c>
       <c r="AA18">
-        <v>831.53</v>
+        <v>209.786</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>690.726</v>
+        <v>305.27999999999997</v>
       </c>
       <c r="D19">
-        <v>7493.3289999999997</v>
+        <v>4078.5729999999999</v>
       </c>
       <c r="E19">
-        <v>5426.1779999999999</v>
+        <v>3325.6529999999998</v>
       </c>
       <c r="F19">
-        <v>2240.6390000000001</v>
+        <v>1409.5170000000001</v>
       </c>
       <c r="G19">
-        <v>11007.808000000001</v>
+        <v>7066.7939999999999</v>
       </c>
       <c r="H19">
-        <v>16991.564999999999</v>
+        <v>9080.1280000000006</v>
       </c>
       <c r="I19">
-        <v>984.53899999999999</v>
+        <v>802.87800000000004</v>
       </c>
       <c r="J19">
-        <v>27.033000000000001</v>
+        <v>45.637999999999998</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.151999999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7493.9859999999999</v>
+        <v>5018.5889999999999</v>
       </c>
       <c r="O19">
-        <v>10441.922</v>
+        <v>6225.0690000000004</v>
       </c>
       <c r="P19">
-        <v>27.224</v>
+        <v>71.513999999999996</v>
       </c>
       <c r="Q19">
-        <v>-410.947</v>
+        <v>-287.17200000000003</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="S19">
-        <v>323000</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>6549.643</v>
+        <v>2855.0590000000002</v>
       </c>
       <c r="U19">
-        <v>4061.4</v>
+        <v>2773.0309999999999</v>
       </c>
       <c r="V19">
-        <v>301.28699999999998</v>
+        <v>593.91600000000005</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-464.40199999999999</v>
+        <v>-720.36900000000003</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>5.1260000000000003</v>
       </c>
       <c r="AA19">
-        <v>690.726</v>
+        <v>305.27999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>793.697</v>
+        <v>229.13499999999999</v>
       </c>
       <c r="D20">
-        <v>7770.3819999999996</v>
+        <v>3924.5790000000002</v>
       </c>
       <c r="E20">
-        <v>5548.1350000000002</v>
+        <v>3106.6129999999998</v>
       </c>
       <c r="F20">
-        <v>2524.9050000000002</v>
+        <v>1293.194</v>
       </c>
       <c r="G20">
-        <v>11069.521000000001</v>
+        <v>6685.2669999999998</v>
       </c>
       <c r="H20">
-        <v>17308.726999999999</v>
+        <v>8957.3520000000008</v>
       </c>
       <c r="I20">
-        <v>1040.645</v>
+        <v>807.31700000000001</v>
       </c>
       <c r="J20">
-        <v>27.216999999999999</v>
+        <v>44.116</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.680999999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,164 +2386,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>7888.442</v>
+        <v>4931.1329999999998</v>
       </c>
       <c r="O20">
-        <v>10842.495999999999</v>
+        <v>6279.4790000000003</v>
       </c>
       <c r="P20">
-        <v>27.218</v>
+        <v>75.188000000000002</v>
       </c>
       <c r="Q20">
-        <v>-35.210999999999999</v>
+        <v>-289.041</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="S20">
-        <v>336000</v>
+        <v>123000</v>
       </c>
       <c r="T20">
-        <v>6466.2309999999998</v>
+        <v>2677.873</v>
       </c>
       <c r="U20">
-        <v>4026.1889999999999</v>
+        <v>2483.9899999999998</v>
       </c>
       <c r="V20">
-        <v>1413.364</v>
+        <v>567.15800000000002</v>
       </c>
       <c r="W20">
-        <v>-674.73500000000001</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-1002.658</v>
+        <v>-532.49</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>5.665</v>
       </c>
       <c r="AA20">
-        <v>793.697</v>
+        <v>229.13499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>737.62800000000004</v>
+        <v>214.94</v>
       </c>
       <c r="D21">
-        <v>7888.5050000000001</v>
+        <v>4169.4750000000004</v>
       </c>
       <c r="E21">
-        <v>5725.424</v>
+        <v>3286.4389999999999</v>
       </c>
       <c r="F21">
-        <v>2504.4050000000002</v>
+        <v>1320.308</v>
       </c>
       <c r="G21">
-        <v>10700.074000000001</v>
+        <v>5847.8590000000004</v>
       </c>
       <c r="H21">
-        <v>18202.647000000001</v>
+        <v>8123.18</v>
       </c>
       <c r="I21">
-        <v>1151.4639999999999</v>
+        <v>774.37599999999998</v>
       </c>
       <c r="J21">
-        <v>25.587</v>
+        <v>31.202000000000002</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-16.22</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-16.989000000000001</v>
       </c>
       <c r="N21">
-        <v>8491.0059999999994</v>
+        <v>4921.5609999999997</v>
       </c>
       <c r="O21">
-        <v>11555.075999999999</v>
+        <v>6344.7560000000003</v>
       </c>
       <c r="P21">
-        <v>27.434999999999999</v>
+        <v>53.716000000000001</v>
       </c>
       <c r="Q21">
-        <v>334.577</v>
+        <v>-797.99300000000005</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="S21">
-        <v>358000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>6647.5709999999999</v>
+        <v>1778.424</v>
       </c>
       <c r="U21">
-        <v>4360.7659999999996</v>
+        <v>1685.9970000000001</v>
       </c>
       <c r="V21">
-        <v>1504.586</v>
+        <v>368.38099999999997</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-267.97300000000001</v>
       </c>
       <c r="X21">
-        <v>-608.35900000000004</v>
+        <v>-1278.1400000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>238.62299999999999</v>
       </c>
       <c r="AA21">
-        <v>737.62800000000004</v>
+        <v>214.94</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>818.899</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="D22">
-        <v>8013.1629999999996</v>
+        <v>4102.7950000000001</v>
       </c>
       <c r="E22">
-        <v>6025.6450000000004</v>
+        <v>3197.9810000000002</v>
       </c>
       <c r="F22">
-        <v>2562.5189999999998</v>
+        <v>868.65599999999995</v>
       </c>
       <c r="G22">
-        <v>10623.048000000001</v>
+        <v>6147.9960000000001</v>
       </c>
       <c r="H22">
-        <v>17993.875</v>
+        <v>8124.652</v>
       </c>
       <c r="I22">
-        <v>1094.8209999999999</v>
+        <v>757.93700000000001</v>
       </c>
       <c r="J22">
-        <v>25.806999999999999</v>
+        <v>28.038</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8472.3979999999992</v>
+        <v>5239.3760000000002</v>
       </c>
       <c r="O22">
-        <v>11588.463</v>
+        <v>6376.1750000000002</v>
       </c>
       <c r="P22">
-        <v>27.655000000000001</v>
+        <v>52.488</v>
       </c>
       <c r="Q22">
-        <v>-1287.5730000000001</v>
+        <v>348.03699999999998</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="S22">
-        <v>373000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>6405.4120000000003</v>
+        <v>1748.4770000000001</v>
       </c>
       <c r="U22">
-        <v>3073.1930000000002</v>
+        <v>2034.0340000000001</v>
       </c>
       <c r="V22">
-        <v>643.25699999999995</v>
+        <v>683.67399999999998</v>
       </c>
       <c r="W22">
-        <v>-720.67600000000004</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-1195.9849999999999</v>
+        <v>-239.31399999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-15.345000000000001</v>
       </c>
       <c r="AA22">
-        <v>818.899</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1326.52</v>
+        <v>342.26400000000001</v>
       </c>
       <c r="D23">
-        <v>7945.5649999999996</v>
+        <v>4408.0690000000004</v>
       </c>
       <c r="E23">
-        <v>6006.5540000000001</v>
+        <v>3330.8649999999998</v>
       </c>
       <c r="F23">
-        <v>2369.8159999999998</v>
+        <v>1453.885</v>
       </c>
       <c r="G23">
-        <v>10678.8</v>
+        <v>6923.1620000000003</v>
       </c>
       <c r="H23">
-        <v>18147.777999999998</v>
+        <v>9011.1710000000003</v>
       </c>
       <c r="I23">
-        <v>1103.3430000000001</v>
+        <v>803.71100000000001</v>
       </c>
       <c r="J23">
-        <v>26.866</v>
+        <v>25.588999999999999</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.0910000000000002</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7573.1790000000001</v>
+        <v>5720.9750000000004</v>
       </c>
       <c r="O23">
-        <v>10774.262000000001</v>
+        <v>6808.9059999999999</v>
       </c>
       <c r="P23">
-        <v>28.65</v>
+        <v>50.393000000000001</v>
       </c>
       <c r="Q23">
-        <v>-38.533999999999999</v>
+        <v>759.68200000000002</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="S23">
-        <v>373000</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>7373.5159999999996</v>
+        <v>2202.2649999999999</v>
       </c>
       <c r="U23">
-        <v>3034.6590000000001</v>
+        <v>2793.7159999999999</v>
       </c>
       <c r="V23">
-        <v>364.19499999999999</v>
+        <v>805.57</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-720.22</v>
+        <v>-201.83600000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>167.41900000000001</v>
       </c>
       <c r="AA23">
-        <v>1326.52</v>
+        <v>342.26400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>897.24699999999996</v>
+        <v>346.44499999999999</v>
       </c>
       <c r="D24">
-        <v>8434.7569999999996</v>
+        <v>3966.0520000000001</v>
       </c>
       <c r="E24">
-        <v>6440.4780000000001</v>
+        <v>3103.6990000000001</v>
       </c>
       <c r="F24">
-        <v>2689.5520000000001</v>
+        <v>1351.19</v>
       </c>
       <c r="G24">
-        <v>11576.011</v>
+        <v>7190.8590000000004</v>
       </c>
       <c r="H24">
-        <v>19191.046999999999</v>
+        <v>9497.4920000000002</v>
       </c>
       <c r="I24">
-        <v>1133.43</v>
+        <v>856.08699999999999</v>
       </c>
       <c r="J24">
-        <v>26.800999999999998</v>
+        <v>27.065000000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,164 +2718,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>8161.1329999999998</v>
+        <v>5772.7030000000004</v>
       </c>
       <c r="O24">
-        <v>11484.489</v>
+        <v>6735.3590000000004</v>
       </c>
       <c r="P24">
-        <v>28.873000000000001</v>
+        <v>51.856999999999999</v>
       </c>
       <c r="Q24">
-        <v>463.21899999999999</v>
+        <v>273.27199999999999</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="S24">
-        <v>375000</v>
+        <v>140000</v>
       </c>
       <c r="T24">
-        <v>7706.558</v>
+        <v>2762.1329999999998</v>
       </c>
       <c r="U24">
-        <v>3497.8780000000002</v>
+        <v>3066.9879999999998</v>
       </c>
       <c r="V24">
-        <v>1593.989</v>
+        <v>810.36400000000003</v>
       </c>
       <c r="W24">
-        <v>-717.46199999999999</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-974.35500000000002</v>
+        <v>-225.17699999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-134.249</v>
       </c>
       <c r="AA24">
-        <v>897.24699999999996</v>
+        <v>346.44499999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1069.2260000000001</v>
+        <v>284.23200000000003</v>
       </c>
       <c r="D25">
-        <v>8489.2379999999994</v>
+        <v>4754.0879999999997</v>
       </c>
       <c r="E25">
-        <v>6222.3990000000003</v>
+        <v>3807.6060000000002</v>
       </c>
       <c r="F25">
-        <v>2655.54</v>
+        <v>1432.2439999999999</v>
       </c>
       <c r="G25">
-        <v>11976.222</v>
+        <v>7202.9210000000003</v>
       </c>
       <c r="H25">
-        <v>20609.004000000001</v>
+        <v>9214.5730000000003</v>
       </c>
       <c r="I25">
-        <v>1280.8209999999999</v>
+        <v>829.30200000000002</v>
       </c>
       <c r="J25">
-        <v>24.457000000000001</v>
+        <v>5.109</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-2.7759999999999998</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-21.632999999999999</v>
       </c>
       <c r="N25">
-        <v>8878.9240000000009</v>
+        <v>5921.9660000000003</v>
       </c>
       <c r="O25">
-        <v>12419.628000000001</v>
+        <v>6760.0649999999996</v>
       </c>
       <c r="P25">
-        <v>27.23</v>
+        <v>31.577000000000002</v>
       </c>
       <c r="Q25">
-        <v>1407.731</v>
+        <v>-629.45799999999997</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="S25">
-        <v>384000</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>8189.3760000000002</v>
+        <v>2454.5079999999998</v>
       </c>
       <c r="U25">
-        <v>4905.6090000000004</v>
+        <v>2437.5300000000002</v>
       </c>
       <c r="V25">
-        <v>2065.9589999999998</v>
+        <v>165.828</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-293.05900000000003</v>
       </c>
       <c r="X25">
-        <v>-598.65800000000002</v>
+        <v>-829.49</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-64.225999999999999</v>
+        <v>61.725999999999999</v>
       </c>
       <c r="AA25">
-        <v>1069.2260000000001</v>
+        <v>284.23200000000003</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>1004.476</v>
+        <v>296.72199999999998</v>
       </c>
       <c r="D26">
-        <v>8515.5169999999998</v>
+        <v>4749.8379999999997</v>
       </c>
       <c r="E26">
-        <v>6469.0079999999998</v>
+        <v>3736.4059999999999</v>
       </c>
       <c r="F26">
-        <v>2730.0320000000002</v>
+        <v>1405.066</v>
       </c>
       <c r="G26">
-        <v>11368.406000000001</v>
+        <v>7557.3370000000004</v>
       </c>
       <c r="H26">
-        <v>20443.741000000002</v>
+        <v>9554.3590000000004</v>
       </c>
       <c r="I26">
-        <v>1163.348</v>
+        <v>832.58299999999997</v>
       </c>
       <c r="J26">
-        <v>24.562000000000001</v>
+        <v>4.2489999999999997</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.502</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>9170.0820000000003</v>
+        <v>6075.5420000000004</v>
       </c>
       <c r="O26">
-        <v>12409.59</v>
+        <v>6859.1350000000002</v>
       </c>
       <c r="P26">
-        <v>27.335000000000001</v>
+        <v>29.257999999999999</v>
       </c>
       <c r="Q26">
-        <v>-828.55100000000004</v>
+        <v>522.40899999999999</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="S26">
-        <v>394000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>8034.1509999999998</v>
+        <v>2695.2240000000002</v>
       </c>
       <c r="U26">
-        <v>4077.058</v>
+        <v>2959.9389999999999</v>
       </c>
       <c r="V26">
-        <v>1083.8820000000001</v>
+        <v>710.178</v>
       </c>
       <c r="W26">
-        <v>-785.12699999999995</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-1162.7750000000001</v>
+        <v>-263.76299999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>142.286</v>
       </c>
       <c r="AA26">
-        <v>1004.476</v>
+        <v>296.72199999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>838.75199999999995</v>
+        <v>345.4</v>
       </c>
       <c r="D27">
-        <v>8317.6710000000003</v>
+        <v>5081.8040000000001</v>
       </c>
       <c r="E27">
-        <v>6563.893</v>
+        <v>3957.77</v>
       </c>
       <c r="F27">
-        <v>2504.1559999999999</v>
+        <v>1609.8420000000001</v>
       </c>
       <c r="G27">
-        <v>10764.002</v>
+        <v>8039.6890000000003</v>
       </c>
       <c r="H27">
-        <v>20078.773000000001</v>
+        <v>10049.016</v>
       </c>
       <c r="I27">
-        <v>1212.8</v>
+        <v>863.64599999999996</v>
       </c>
       <c r="J27">
-        <v>24.545999999999999</v>
+        <v>3.226</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>8352.7729999999992</v>
+        <v>6667.4859999999999</v>
       </c>
       <c r="O27">
-        <v>11463.624</v>
+        <v>7455.4489999999996</v>
       </c>
       <c r="P27">
-        <v>27.49</v>
+        <v>28.231999999999999</v>
       </c>
       <c r="Q27">
-        <v>-838.19600000000003</v>
+        <v>133.69499999999999</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="S27">
-        <v>401000</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>8615.1489999999994</v>
+        <v>2593.567</v>
       </c>
       <c r="U27">
-        <v>3238.8620000000001</v>
+        <v>3093.634</v>
       </c>
       <c r="V27">
-        <v>154.703</v>
+        <v>977.51800000000003</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-681.32</v>
+        <v>-686.00400000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-73.891000000000005</v>
       </c>
       <c r="AA27">
-        <v>838.75199999999995</v>
+        <v>345.4</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>669.46799999999996</v>
+        <v>316.79399999999998</v>
       </c>
       <c r="D28">
-        <v>8867.0360000000001</v>
+        <v>5110.0839999999998</v>
       </c>
       <c r="E28">
-        <v>6741.7250000000004</v>
+        <v>3699.3339999999998</v>
       </c>
       <c r="F28">
-        <v>2909.6309999999999</v>
+        <v>1594.3209999999999</v>
       </c>
       <c r="G28">
-        <v>11205.735000000001</v>
+        <v>7971.1779999999999</v>
       </c>
       <c r="H28">
-        <v>21135.592000000001</v>
+        <v>10747.162</v>
       </c>
       <c r="I28">
-        <v>1291.1379999999999</v>
+        <v>985.07100000000003</v>
       </c>
       <c r="J28">
-        <v>24.731999999999999</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,161 +3050,161 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>9154.3250000000007</v>
+        <v>6879.32</v>
       </c>
       <c r="O28">
-        <v>12258.932000000001</v>
+        <v>7943.6440000000002</v>
       </c>
       <c r="P28">
-        <v>27.673999999999999</v>
+        <v>26.36</v>
       </c>
       <c r="Q28">
-        <v>143.346</v>
+        <v>220.762</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="S28">
-        <v>411000</v>
+        <v>170000</v>
       </c>
       <c r="T28">
-        <v>8876.66</v>
+        <v>2803.518</v>
       </c>
       <c r="U28">
-        <v>3382.2080000000001</v>
+        <v>3314.3960000000002</v>
       </c>
       <c r="V28">
-        <v>1792.5719999999999</v>
+        <v>777.04100000000005</v>
       </c>
       <c r="W28">
-        <v>-782.45100000000002</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-1123.576</v>
+        <v>-348.44900000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>61.609000000000002</v>
       </c>
       <c r="AA28">
-        <v>669.46799999999996</v>
+        <v>316.79399999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>932.45299999999997</v>
+        <v>381.28500000000003</v>
       </c>
       <c r="D29">
-        <v>9149.9580000000005</v>
+        <v>5673.9129999999996</v>
       </c>
       <c r="E29">
-        <v>6885.2569999999996</v>
+        <v>4198.5280000000002</v>
       </c>
       <c r="F29">
-        <v>2886.6729999999998</v>
+        <v>1705.077</v>
       </c>
       <c r="G29">
-        <v>12097.289000000001</v>
+        <v>7579.0789999999997</v>
       </c>
       <c r="H29">
-        <v>22689.89</v>
+        <v>10747.5</v>
       </c>
       <c r="I29">
-        <v>1525.0650000000001</v>
+        <v>946.98900000000003</v>
       </c>
       <c r="J29">
-        <v>22.163</v>
+        <v>2.0659999999999998</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-30.748000000000001</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-21.141999999999999</v>
       </c>
       <c r="N29">
-        <v>9824.2790000000005</v>
+        <v>6011.1769999999997</v>
       </c>
       <c r="O29">
-        <v>12979.69</v>
+        <v>8098.6589999999997</v>
       </c>
       <c r="P29">
-        <v>25.07</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="Q29">
-        <v>744.65200000000004</v>
+        <v>-842.02300000000002</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="S29">
-        <v>425000</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>9710.2000000000007</v>
+        <v>2648.8409999999999</v>
       </c>
       <c r="U29">
-        <v>4126.8599999999997</v>
+        <v>2472.373</v>
       </c>
       <c r="V29">
-        <v>1941.8820000000001</v>
+        <v>-31.471</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>-333.685</v>
       </c>
       <c r="X29">
-        <v>-592.56399999999996</v>
+        <v>-791.346</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-60.982999999999997</v>
+        <v>100.857</v>
       </c>
       <c r="AA29">
-        <v>932.45299999999997</v>
+        <v>381.28500000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1123.6600000000001</v>
+        <v>406.55700000000002</v>
       </c>
       <c r="D30">
-        <v>9884.3130000000001</v>
+        <v>5611.3140000000003</v>
       </c>
       <c r="E30">
-        <v>7457.9549999999999</v>
+        <v>4147.3639999999996</v>
       </c>
       <c r="F30">
-        <v>3064.1529999999998</v>
+        <v>1653.05</v>
       </c>
       <c r="G30">
-        <v>12303.841</v>
+        <v>7600.4679999999998</v>
       </c>
       <c r="H30">
-        <v>22974.152999999998</v>
+        <v>10908.314</v>
       </c>
       <c r="I30">
-        <v>1316.93</v>
+        <v>963.22799999999995</v>
       </c>
       <c r="J30">
-        <v>22.225999999999999</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>9863.0259999999998</v>
+        <v>6034.34</v>
       </c>
       <c r="O30">
-        <v>13080.716</v>
+        <v>8121.2150000000001</v>
       </c>
       <c r="P30">
-        <v>25.204999999999998</v>
+        <v>9.1340000000000003</v>
       </c>
       <c r="Q30">
-        <v>-445.149</v>
+        <v>111.76600000000001</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="S30">
-        <v>435000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>9893.4369999999999</v>
+        <v>2787.0990000000002</v>
       </c>
       <c r="U30">
-        <v>3681.7109999999998</v>
+        <v>2584.1390000000001</v>
       </c>
       <c r="V30">
-        <v>1005.838</v>
+        <v>723.99400000000003</v>
       </c>
       <c r="W30">
-        <v>-853.61400000000003</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-1179.02</v>
+        <v>-512.173</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>78.200999999999993</v>
       </c>
       <c r="AA30">
-        <v>1123.6600000000001</v>
+        <v>406.55700000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>863.70299999999997</v>
+        <v>469.089</v>
       </c>
       <c r="D31">
-        <v>9909.2379999999994</v>
+        <v>6102.0590000000002</v>
       </c>
       <c r="E31">
-        <v>7511.3010000000004</v>
+        <v>4458.3680000000004</v>
       </c>
       <c r="F31">
-        <v>2859.54</v>
+        <v>1922.681</v>
       </c>
       <c r="G31">
-        <v>12284.948</v>
+        <v>8613.5499999999993</v>
       </c>
       <c r="H31">
-        <v>23132.978999999999</v>
+        <v>11917.405000000001</v>
       </c>
       <c r="I31">
-        <v>1367.4639999999999</v>
+        <v>1008.3819999999999</v>
       </c>
       <c r="J31">
-        <v>25.922999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>9367.9120000000003</v>
+        <v>6546.0829999999996</v>
       </c>
       <c r="O31">
-        <v>12694.553</v>
+        <v>8729.2630000000008</v>
       </c>
       <c r="P31">
-        <v>28.837</v>
+        <v>6.7220000000000004</v>
       </c>
       <c r="Q31">
-        <v>-86.632000000000005</v>
+        <v>742.28399999999999</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="S31">
-        <v>442000</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>10438.425999999999</v>
+        <v>3188.1419999999998</v>
       </c>
       <c r="U31">
-        <v>3595.0790000000002</v>
+        <v>3326.4229999999998</v>
       </c>
       <c r="V31">
-        <v>924.05700000000002</v>
+        <v>1080.0450000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-703.20399999999995</v>
+        <v>-333.64299999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>88.944000000000003</v>
       </c>
       <c r="AA31">
-        <v>863.70299999999997</v>
+        <v>469.089</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1043.02</v>
+        <v>434.82</v>
       </c>
       <c r="D32">
-        <v>10694.995999999999</v>
+        <v>5999.5159999999996</v>
       </c>
       <c r="E32">
-        <v>7446.6989999999996</v>
+        <v>4515.3950000000004</v>
       </c>
       <c r="F32">
-        <v>3332.0149999999999</v>
+        <v>1904.777</v>
       </c>
       <c r="G32">
-        <v>12336.871999999999</v>
+        <v>9159.1280000000006</v>
       </c>
       <c r="H32">
-        <v>23250.793000000001</v>
+        <v>12398.525</v>
       </c>
       <c r="I32">
-        <v>1388.989</v>
+        <v>1017.227</v>
       </c>
       <c r="J32">
-        <v>25.957999999999998</v>
+        <v>1.708</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4.8840000000000003</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,161 +3382,161 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>9553.5959999999995</v>
+        <v>6847.8779999999997</v>
       </c>
       <c r="O32">
-        <v>13098.057000000001</v>
+        <v>9205.85</v>
       </c>
       <c r="P32">
-        <v>28.797999999999998</v>
+        <v>8.2780000000000005</v>
       </c>
       <c r="Q32">
-        <v>333.76600000000002</v>
+        <v>276.33699999999999</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="S32">
-        <v>449000</v>
+        <v>186000</v>
       </c>
       <c r="T32">
-        <v>10152.736000000001</v>
+        <v>3192.6750000000002</v>
       </c>
       <c r="U32">
-        <v>3928.8449999999998</v>
+        <v>3602.76</v>
       </c>
       <c r="V32">
-        <v>1987.538</v>
+        <v>1030.68</v>
       </c>
       <c r="W32">
-        <v>-853.83100000000002</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-1295.1880000000001</v>
+        <v>-524.35500000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>13.845000000000001</v>
       </c>
       <c r="AA32">
-        <v>1043.02</v>
+        <v>434.82</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1029.5239999999999</v>
+        <v>479.86599999999999</v>
       </c>
       <c r="D33">
-        <v>10503.986999999999</v>
+        <v>6019.4970000000003</v>
       </c>
       <c r="E33">
-        <v>7496.3680000000004</v>
+        <v>4144.5069999999996</v>
       </c>
       <c r="F33">
-        <v>3237.6559999999999</v>
+        <v>1887.808</v>
       </c>
       <c r="G33">
-        <v>13585.558999999999</v>
+        <v>7830.6120000000001</v>
       </c>
       <c r="H33">
-        <v>24449.082999999999</v>
+        <v>10932.055</v>
       </c>
       <c r="I33">
-        <v>1348.8019999999999</v>
+        <v>904.09500000000003</v>
       </c>
       <c r="J33">
-        <v>19.675999999999998</v>
+        <v>1.198</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-4.7690000000000001</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-0.54800000000000004</v>
       </c>
       <c r="N33">
-        <v>10151.751</v>
+        <v>6024.2430000000004</v>
       </c>
       <c r="O33">
-        <v>13724.495000000001</v>
+        <v>8326.6350000000002</v>
       </c>
       <c r="P33">
-        <v>25.013000000000002</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="Q33">
-        <v>1132.5150000000001</v>
+        <v>-819.79899999999998</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="S33">
-        <v>459000</v>
+        <v>187000</v>
       </c>
       <c r="T33">
-        <v>10724.588</v>
+        <v>2605.42</v>
       </c>
       <c r="U33">
-        <v>5061.3599999999997</v>
+        <v>2782.9609999999998</v>
       </c>
       <c r="V33">
-        <v>2109.2579999999998</v>
+        <v>468.13200000000001</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-378.44600000000003</v>
       </c>
       <c r="X33">
-        <v>-531.61599999999999</v>
+        <v>-927.92</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-61.398000000000003</v>
+        <v>10.46</v>
       </c>
       <c r="AA33">
-        <v>1029.5239999999999</v>
+        <v>479.86599999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1274.72</v>
+        <v>411.43599999999998</v>
       </c>
       <c r="D34">
-        <v>10605.546</v>
+        <v>5266.3239999999996</v>
       </c>
       <c r="E34">
-        <v>8023.0569999999998</v>
+        <v>3626.058</v>
       </c>
       <c r="F34">
-        <v>3297.4250000000002</v>
+        <v>1622.325</v>
       </c>
       <c r="G34">
-        <v>13540.407999999999</v>
+        <v>7526.9480000000003</v>
       </c>
       <c r="H34">
-        <v>26706.412</v>
+        <v>10557.359</v>
       </c>
       <c r="I34">
-        <v>1355.538</v>
+        <v>716.46600000000001</v>
       </c>
       <c r="J34">
-        <v>19.896000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,84 +3545,84 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-0.36899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>10176.334999999999</v>
+        <v>5460.6180000000004</v>
       </c>
       <c r="O34">
-        <v>13650.843999999999</v>
+        <v>7650.299</v>
       </c>
       <c r="P34">
-        <v>24.623000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="Q34">
-        <v>-697.57</v>
+        <v>195.03899999999999</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="S34">
-        <v>469000</v>
+        <v>181000</v>
       </c>
       <c r="T34">
-        <v>13055.567999999999</v>
+        <v>2907.06</v>
       </c>
       <c r="U34">
-        <v>4363.79</v>
+        <v>2978</v>
       </c>
       <c r="V34">
-        <v>1027.508</v>
+        <v>630.63699999999994</v>
       </c>
       <c r="W34">
-        <v>-931.46</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-1462.1679999999999</v>
+        <v>-299.94900000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="AA34">
-        <v>1274.72</v>
+        <v>411.43599999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1124.4490000000001</v>
+        <v>443.96899999999999</v>
       </c>
       <c r="D35">
-        <v>10454.129000000001</v>
+        <v>5145.0929999999998</v>
       </c>
       <c r="E35">
-        <v>8151.4110000000001</v>
+        <v>3744.511</v>
       </c>
       <c r="F35">
-        <v>3054.3490000000002</v>
+        <v>1670.627</v>
       </c>
       <c r="G35">
-        <v>13833.3</v>
+        <v>8624.8259999999991</v>
       </c>
       <c r="H35">
-        <v>27390.207999999999</v>
+        <v>11827.664000000001</v>
       </c>
       <c r="I35">
-        <v>1472.13</v>
+        <v>746.56799999999998</v>
       </c>
       <c r="J35">
-        <v>19.753</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>10219.049000000001</v>
+        <v>5908.4359999999997</v>
       </c>
       <c r="O35">
-        <v>13661.663</v>
+        <v>8220.1170000000002</v>
       </c>
       <c r="P35">
-        <v>24.117999999999999</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="Q35">
-        <v>101.099</v>
+        <v>1024.4590000000001</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="S35">
-        <v>477000</v>
+        <v>177000</v>
       </c>
       <c r="T35">
-        <v>13728.545</v>
+        <v>3607.547</v>
       </c>
       <c r="U35">
-        <v>4464.8890000000001</v>
+        <v>4002.4589999999998</v>
       </c>
       <c r="V35">
-        <v>1359.65</v>
+        <v>1014.619</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-831.923</v>
+        <v>-159.03100000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>8.0389999999999997</v>
       </c>
       <c r="AA35">
-        <v>1124.4490000000001</v>
+        <v>443.96899999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1249.5160000000001</v>
+        <v>254.69200000000001</v>
       </c>
       <c r="D36">
-        <v>11099.688</v>
+        <v>5145.9359999999997</v>
       </c>
       <c r="E36">
-        <v>8134.1469999999999</v>
+        <v>3361.7849999999999</v>
       </c>
       <c r="F36">
-        <v>3528.2979999999998</v>
+        <v>1660.354</v>
       </c>
       <c r="G36">
-        <v>14141.66</v>
+        <v>8990.5139999999992</v>
       </c>
       <c r="H36">
-        <v>28156.36</v>
+        <v>12255.734</v>
       </c>
       <c r="I36">
-        <v>1562.9949999999999</v>
+        <v>717.37900000000002</v>
       </c>
       <c r="J36">
-        <v>19.855</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>10551.986999999999</v>
+        <v>6238.9589999999998</v>
       </c>
       <c r="O36">
-        <v>14013.402</v>
+        <v>8869.5280000000002</v>
       </c>
       <c r="P36">
-        <v>23.992000000000001</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="Q36">
-        <v>304.26900000000001</v>
+        <v>539.20299999999997</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="S36">
-        <v>482000</v>
+        <v>177000</v>
       </c>
       <c r="T36">
-        <v>14142.958000000001</v>
+        <v>3386.2060000000001</v>
       </c>
       <c r="U36">
-        <v>4769.1580000000004</v>
+        <v>4541.6620000000003</v>
       </c>
       <c r="V36">
-        <v>2123.5419999999999</v>
+        <v>1046.8140000000001</v>
       </c>
       <c r="W36">
-        <v>-930.26499999999999</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-1122.0619999999999</v>
+        <v>-463.40300000000002</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="AA36">
-        <v>1249.5160000000001</v>
+        <v>254.69200000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1130.4269999999999</v>
+        <v>444.81700000000001</v>
       </c>
       <c r="D37">
-        <v>11055.65</v>
+        <v>5382.5320000000002</v>
       </c>
       <c r="E37">
-        <v>8095.0709999999999</v>
+        <v>3794.8139999999999</v>
       </c>
       <c r="F37">
-        <v>3434.616</v>
+        <v>1783.954</v>
       </c>
       <c r="G37">
-        <v>15450.601000000001</v>
+        <v>8929.3109999999997</v>
       </c>
       <c r="H37">
-        <v>29789.88</v>
+        <v>12184.819</v>
       </c>
       <c r="I37">
-        <v>1646.6410000000001</v>
+        <v>689.76900000000001</v>
       </c>
       <c r="J37">
-        <v>16.247</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>11061.896000000001</v>
+        <v>6177.1689999999999</v>
       </c>
       <c r="O37">
-        <v>14962.189</v>
+        <v>8870.9419999999991</v>
       </c>
       <c r="P37">
-        <v>22.658000000000001</v>
+        <v>2.589</v>
       </c>
       <c r="Q37">
-        <v>1357.6949999999999</v>
+        <v>-541.59900000000005</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="S37">
-        <v>492000</v>
+        <v>176000</v>
       </c>
       <c r="T37">
-        <v>14827.691000000001</v>
+        <v>3313.877</v>
       </c>
       <c r="U37">
-        <v>6126.8530000000001</v>
+        <v>4000.0630000000001</v>
       </c>
       <c r="V37">
-        <v>2116.2530000000002</v>
+        <v>219.11099999999999</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-551.44200000000001</v>
       </c>
       <c r="X37">
-        <v>-351.01799999999997</v>
+        <v>-831.71299999999997</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-23.027000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="AA37">
-        <v>1130.4269999999999</v>
+        <v>444.81700000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1356.9680000000001</v>
+        <v>399.76</v>
       </c>
       <c r="D38">
-        <v>11358.958000000001</v>
+        <v>5176.4380000000001</v>
       </c>
       <c r="E38">
-        <v>8577.3860000000004</v>
+        <v>3589.902</v>
       </c>
       <c r="F38">
-        <v>3647.759</v>
+        <v>1690.3309999999999</v>
       </c>
       <c r="G38">
-        <v>15606.103999999999</v>
+        <v>8774.4519999999993</v>
       </c>
       <c r="H38">
-        <v>33170.712</v>
+        <v>11890.088</v>
       </c>
       <c r="I38">
-        <v>1581.1120000000001</v>
+        <v>683.63199999999995</v>
       </c>
       <c r="J38">
-        <v>15.935</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3877,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>11199.407999999999</v>
+        <v>5809.2190000000001</v>
       </c>
       <c r="O38">
-        <v>17569.504000000001</v>
+        <v>8449.1849999999995</v>
       </c>
       <c r="P38">
-        <v>3382.0709999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="Q38">
-        <v>-316.31599999999997</v>
+        <v>114.688</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="S38">
-        <v>505000</v>
+        <v>181000</v>
       </c>
       <c r="T38">
-        <v>15601.208000000001</v>
+        <v>3440.9029999999998</v>
       </c>
       <c r="U38">
-        <v>5810.5370000000003</v>
+        <v>4114.7510000000002</v>
       </c>
       <c r="V38">
-        <v>786.91099999999994</v>
+        <v>659.98099999999999</v>
       </c>
       <c r="W38">
-        <v>-507.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-948.22400000000005</v>
+        <v>-342.87599999999998</v>
       </c>
       <c r="Y38">
-        <v>2651.6509999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-2.948</v>
       </c>
       <c r="AA38">
-        <v>1356.9680000000001</v>
+        <v>399.76</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1234.74</v>
+        <v>490.59699999999998</v>
       </c>
       <c r="D39">
-        <v>11141.504999999999</v>
+        <v>5571.0169999999998</v>
       </c>
       <c r="E39">
-        <v>8517.9490000000005</v>
+        <v>3516.35</v>
       </c>
       <c r="F39">
-        <v>3359.1709999999998</v>
+        <v>1931.65</v>
       </c>
       <c r="G39">
-        <v>15405.293</v>
+        <v>8843.39</v>
       </c>
       <c r="H39">
-        <v>33503.43</v>
+        <v>11917.657999999999</v>
       </c>
       <c r="I39">
-        <v>1526.135</v>
+        <v>683.09400000000005</v>
       </c>
       <c r="J39">
-        <v>13.183</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>11177.575000000001</v>
+        <v>5829.0540000000001</v>
       </c>
       <c r="O39">
-        <v>17582.624</v>
+        <v>8456.2579999999998</v>
       </c>
       <c r="P39">
-        <v>3410.2089999999998</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="Q39">
-        <v>-374.08100000000002</v>
+        <v>197.36</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="S39">
-        <v>509000</v>
+        <v>190000</v>
       </c>
       <c r="T39">
-        <v>15920.806</v>
+        <v>3461.4</v>
       </c>
       <c r="U39">
-        <v>5436.4560000000001</v>
+        <v>4312.1109999999999</v>
       </c>
       <c r="V39">
-        <v>1530.6410000000001</v>
+        <v>960.923</v>
       </c>
       <c r="W39">
-        <v>-510.60399999999998</v>
+        <v>-272.70600000000002</v>
       </c>
       <c r="X39">
-        <v>-1289.2760000000001</v>
+        <v>-548.03099999999995</v>
       </c>
       <c r="Y39">
-        <v>2652.5479999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1.337</v>
       </c>
       <c r="AA39">
-        <v>1234.74</v>
+        <v>490.59699999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>1228.202</v>
+        <v>445.48200000000003</v>
       </c>
       <c r="D40">
-        <v>10991.305</v>
+        <v>5420.5810000000001</v>
       </c>
       <c r="E40">
-        <v>8345.6010000000006</v>
+        <v>3662.4250000000002</v>
       </c>
       <c r="F40">
-        <v>3528.6880000000001</v>
+        <v>1844.8119999999999</v>
       </c>
       <c r="G40">
-        <v>16146.236000000001</v>
+        <v>9563.625</v>
       </c>
       <c r="H40">
-        <v>35057.319000000003</v>
+        <v>12835.253000000001</v>
       </c>
       <c r="I40">
-        <v>1405.9770000000001</v>
+        <v>885.32799999999997</v>
       </c>
       <c r="J40">
-        <v>60.341999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>11828.281000000001</v>
+        <v>6567.6040000000003</v>
       </c>
       <c r="O40">
-        <v>18573.673999999999</v>
+        <v>9560.5300000000007</v>
       </c>
       <c r="P40">
-        <v>3512.221</v>
+        <v>1.5880000000000001</v>
       </c>
       <c r="Q40">
-        <v>1005.8049999999999</v>
+        <v>526.18100000000004</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="S40">
-        <v>513000</v>
+        <v>204000</v>
       </c>
       <c r="T40">
-        <v>16483.645</v>
+        <v>3274.723</v>
       </c>
       <c r="U40">
-        <v>6442.2610000000004</v>
+        <v>4838.2920000000004</v>
       </c>
       <c r="V40">
-        <v>2741.4659999999999</v>
+        <v>1251.605</v>
       </c>
       <c r="W40">
-        <v>-508.28300000000002</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-798.05</v>
+        <v>-706.40599999999995</v>
       </c>
       <c r="Y40">
-        <v>2704.54</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="AA40">
-        <v>1228.202</v>
+        <v>445.48200000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1287.9290000000001</v>
+        <v>534.71400000000006</v>
       </c>
       <c r="D41">
-        <v>10835.271000000001</v>
+        <v>6045.65</v>
       </c>
       <c r="E41">
-        <v>7846.8919999999998</v>
+        <v>4201.415</v>
       </c>
       <c r="F41">
-        <v>3440.54</v>
+        <v>1944.48</v>
       </c>
       <c r="G41">
-        <v>17749.756000000001</v>
+        <v>9469.7099999999991</v>
       </c>
       <c r="H41">
-        <v>37078.593000000001</v>
+        <v>12868.874</v>
       </c>
       <c r="I41">
-        <v>1349.874</v>
+        <v>824.35400000000004</v>
       </c>
       <c r="J41">
-        <v>54.052</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,132 +4126,3452 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-1.335</v>
       </c>
       <c r="N41">
-        <v>12662.59</v>
+        <v>6446.8509999999997</v>
       </c>
       <c r="O41">
-        <v>19579.419999999998</v>
+        <v>9557.7639999999992</v>
       </c>
       <c r="P41">
-        <v>3485.5129999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="Q41">
-        <v>1973.069</v>
+        <v>-677.84</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="S41">
-        <v>506000</v>
+        <v>211000</v>
       </c>
       <c r="T41">
-        <v>17499.172999999999</v>
+        <v>3311.11</v>
       </c>
       <c r="U41">
-        <v>8415.33</v>
+        <v>4160.4520000000002</v>
       </c>
       <c r="V41">
-        <v>3156.134</v>
+        <v>106.399</v>
       </c>
       <c r="W41">
-        <v>-508.58600000000001</v>
+        <v>-320.64999999999998</v>
       </c>
       <c r="X41">
-        <v>-1013.542</v>
+        <v>-703.60699999999997</v>
       </c>
       <c r="Y41">
-        <v>2667.5839999999998</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-17.689</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="AA41">
-        <v>1287.9290000000001</v>
+        <v>534.71400000000006</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40602</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>503.017</v>
+      </c>
+      <c r="D42">
+        <v>6053.6210000000001</v>
+      </c>
+      <c r="E42">
+        <v>4445.4790000000003</v>
+      </c>
+      <c r="F42">
+        <v>1917.2239999999999</v>
+      </c>
+      <c r="G42">
+        <v>10279.277</v>
+      </c>
+      <c r="H42">
+        <v>13893.673000000001</v>
+      </c>
+      <c r="I42">
+        <v>846.36500000000001</v>
+      </c>
+      <c r="J42">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>6617.0959999999995</v>
+      </c>
+      <c r="O42">
+        <v>9845.902</v>
+      </c>
+      <c r="P42">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="Q42">
+        <v>517.09199999999998</v>
+      </c>
+      <c r="R42">
+        <v>40602</v>
+      </c>
+      <c r="S42">
+        <v>215000</v>
+      </c>
+      <c r="T42">
+        <v>4047.7710000000002</v>
+      </c>
+      <c r="U42">
+        <v>4677.5439999999999</v>
+      </c>
+      <c r="V42">
+        <v>601.10400000000004</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-46.892000000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1E-3</v>
+      </c>
+      <c r="AA42">
+        <v>503.017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>628.01300000000003</v>
+      </c>
+      <c r="D43">
+        <v>6720.1149999999998</v>
+      </c>
+      <c r="E43">
+        <v>4696.165</v>
+      </c>
+      <c r="F43">
+        <v>2309.6280000000002</v>
+      </c>
+      <c r="G43">
+        <v>11147.26</v>
+      </c>
+      <c r="H43">
+        <v>14903.968999999999</v>
+      </c>
+      <c r="I43">
+        <v>862.65099999999995</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>7372.6660000000002</v>
+      </c>
+      <c r="O43">
+        <v>10727.537</v>
+      </c>
+      <c r="P43">
+        <v>4.6210000000000004</v>
+      </c>
+      <c r="Q43">
+        <v>579.14</v>
+      </c>
+      <c r="R43">
+        <v>40694</v>
+      </c>
+      <c r="S43">
+        <v>223000</v>
+      </c>
+      <c r="T43">
+        <v>4176.4319999999998</v>
+      </c>
+      <c r="U43">
+        <v>5256.6840000000002</v>
+      </c>
+      <c r="V43">
+        <v>1352.96</v>
+      </c>
+      <c r="W43">
+        <v>-322.99200000000002</v>
+      </c>
+      <c r="X43">
+        <v>-756.47</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>628.01300000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>611.93299999999999</v>
+      </c>
+      <c r="D44">
+        <v>6687.65</v>
+      </c>
+      <c r="E44">
+        <v>4621.7920000000004</v>
+      </c>
+      <c r="F44">
+        <v>2215.3870000000002</v>
+      </c>
+      <c r="G44">
+        <v>11471.183000000001</v>
+      </c>
+      <c r="H44">
+        <v>15731.51</v>
+      </c>
+      <c r="I44">
+        <v>949.25</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>7906.5889999999999</v>
+      </c>
+      <c r="O44">
+        <v>11380.638000000001</v>
+      </c>
+      <c r="P44">
+        <v>4.4189999999999996</v>
+      </c>
+      <c r="Q44">
+        <v>444.39400000000001</v>
+      </c>
+      <c r="R44">
+        <v>40786</v>
+      </c>
+      <c r="S44">
+        <v>236000</v>
+      </c>
+      <c r="T44">
+        <v>4350.8720000000003</v>
+      </c>
+      <c r="U44">
+        <v>5701.0780000000004</v>
+      </c>
+      <c r="V44">
+        <v>1381.2760000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-614.53499999999997</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1E-3</v>
+      </c>
+      <c r="AA44">
+        <v>611.93299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>642.08600000000001</v>
+      </c>
+      <c r="D45">
+        <v>7074.4970000000003</v>
+      </c>
+      <c r="E45">
+        <v>4815.0969999999998</v>
+      </c>
+      <c r="F45">
+        <v>2251.54</v>
+      </c>
+      <c r="G45">
+        <v>10992.718999999999</v>
+      </c>
+      <c r="H45">
+        <v>15290.844999999999</v>
+      </c>
+      <c r="I45">
+        <v>898.11300000000006</v>
+      </c>
+      <c r="J45">
+        <v>1.62</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="N45">
+        <v>7575.125</v>
+      </c>
+      <c r="O45">
+        <v>11071.661</v>
+      </c>
+      <c r="P45">
+        <v>6.3819999999999997</v>
+      </c>
+      <c r="Q45">
+        <v>-609.17200000000003</v>
+      </c>
+      <c r="R45">
+        <v>40877</v>
+      </c>
+      <c r="S45">
+        <v>244000</v>
+      </c>
+      <c r="T45">
+        <v>4219.1840000000002</v>
+      </c>
+      <c r="U45">
+        <v>5091.9059999999999</v>
+      </c>
+      <c r="V45">
+        <v>475.25799999999998</v>
+      </c>
+      <c r="W45">
+        <v>-474.89600000000002</v>
+      </c>
+      <c r="X45">
+        <v>-587.61699999999996</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AA45">
+        <v>642.08600000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>643.923</v>
+      </c>
+      <c r="D46">
+        <v>6797.25</v>
+      </c>
+      <c r="E46">
+        <v>4774.7579999999998</v>
+      </c>
+      <c r="F46">
+        <v>2116.366</v>
+      </c>
+      <c r="G46">
+        <v>11554.68</v>
+      </c>
+      <c r="H46">
+        <v>15808.096</v>
+      </c>
+      <c r="I46">
+        <v>892.43600000000004</v>
+      </c>
+      <c r="J46">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>7537.8509999999997</v>
+      </c>
+      <c r="O46">
+        <v>10814.950999999999</v>
+      </c>
+      <c r="P46">
+        <v>5.8540000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>476.84</v>
+      </c>
+      <c r="R46">
+        <v>40968</v>
+      </c>
+      <c r="S46">
+        <v>246000</v>
+      </c>
+      <c r="T46">
+        <v>4993.1450000000004</v>
+      </c>
+      <c r="U46">
+        <v>5568.7460000000001</v>
+      </c>
+      <c r="V46">
+        <v>857.81299999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-378.28199999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-0.04</v>
+      </c>
+      <c r="AA46">
+        <v>643.923</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>689.21900000000005</v>
+      </c>
+      <c r="D47">
+        <v>7154.69</v>
+      </c>
+      <c r="E47">
+        <v>4679.4369999999999</v>
+      </c>
+      <c r="F47">
+        <v>2370.9050000000002</v>
+      </c>
+      <c r="G47">
+        <v>11458.026</v>
+      </c>
+      <c r="H47">
+        <v>15535.915000000001</v>
+      </c>
+      <c r="I47">
+        <v>808.67399999999998</v>
+      </c>
+      <c r="J47">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>7593.067</v>
+      </c>
+      <c r="O47">
+        <v>10947.822</v>
+      </c>
+      <c r="P47">
+        <v>5.43</v>
+      </c>
+      <c r="Q47">
+        <v>59.912999999999997</v>
+      </c>
+      <c r="R47">
+        <v>41060</v>
+      </c>
+      <c r="S47">
+        <v>249000</v>
+      </c>
+      <c r="T47">
+        <v>4588.0929999999998</v>
+      </c>
+      <c r="U47">
+        <v>5628.6589999999997</v>
+      </c>
+      <c r="V47">
+        <v>1215.5899999999999</v>
+      </c>
+      <c r="W47">
+        <v>-475.96100000000001</v>
+      </c>
+      <c r="X47">
+        <v>-949.97199999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>4.9729999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>689.21900000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>578.28200000000004</v>
+      </c>
+      <c r="D48">
+        <v>6835.893</v>
+      </c>
+      <c r="E48">
+        <v>4480.7110000000002</v>
+      </c>
+      <c r="F48">
+        <v>2248.89</v>
+      </c>
+      <c r="G48">
+        <v>12587.931</v>
+      </c>
+      <c r="H48">
+        <v>16665.415000000001</v>
+      </c>
+      <c r="I48">
+        <v>903.84699999999998</v>
+      </c>
+      <c r="J48">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>8109.2049999999999</v>
+      </c>
+      <c r="O48">
+        <v>12040.986999999999</v>
+      </c>
+      <c r="P48">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q48">
+        <v>1011.867</v>
+      </c>
+      <c r="R48">
+        <v>41152</v>
+      </c>
+      <c r="S48">
+        <v>257000</v>
+      </c>
+      <c r="T48">
+        <v>4624.4279999999999</v>
+      </c>
+      <c r="U48">
+        <v>6640.5259999999998</v>
+      </c>
+      <c r="V48">
+        <v>1708.191</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-642.98400000000004</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>578.28200000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>698.81700000000001</v>
+      </c>
+      <c r="D49">
+        <v>7219.9610000000002</v>
+      </c>
+      <c r="E49">
+        <v>4989.47</v>
+      </c>
+      <c r="F49">
+        <v>2366.1930000000002</v>
+      </c>
+      <c r="G49">
+        <v>12013.526</v>
+      </c>
+      <c r="H49">
+        <v>16408.02</v>
+      </c>
+      <c r="I49">
+        <v>890.23299999999995</v>
+      </c>
+      <c r="J49">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="N49">
+        <v>7977.3590000000004</v>
+      </c>
+      <c r="O49">
+        <v>11414.048000000001</v>
+      </c>
+      <c r="P49">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q49">
+        <v>-961.63400000000001</v>
+      </c>
+      <c r="R49">
+        <v>41243</v>
+      </c>
+      <c r="S49">
+        <v>259000</v>
+      </c>
+      <c r="T49">
+        <v>4993.9719999999998</v>
+      </c>
+      <c r="U49">
+        <v>5678.8919999999998</v>
+      </c>
+      <c r="V49">
+        <v>-108.815</v>
+      </c>
+      <c r="W49">
+        <v>-560.13499999999999</v>
+      </c>
+      <c r="X49">
+        <v>-577.66200000000003</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>698.81700000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1101.8019999999999</v>
+      </c>
+      <c r="D50">
+        <v>7058.0420000000004</v>
+      </c>
+      <c r="E50">
+        <v>4975.902</v>
+      </c>
+      <c r="F50">
+        <v>2230.3629999999998</v>
+      </c>
+      <c r="G50">
+        <v>12016.949000000001</v>
+      </c>
+      <c r="H50">
+        <v>16358.73</v>
+      </c>
+      <c r="I50">
+        <v>883.048</v>
+      </c>
+      <c r="J50">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>7365.4740000000002</v>
+      </c>
+      <c r="O50">
+        <v>10418.859</v>
+      </c>
+      <c r="P50">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Q50">
+        <v>-42.805999999999997</v>
+      </c>
+      <c r="R50">
+        <v>41333</v>
+      </c>
+      <c r="S50">
+        <v>261000</v>
+      </c>
+      <c r="T50">
+        <v>5939.8710000000001</v>
+      </c>
+      <c r="U50">
+        <v>5636.0860000000002</v>
+      </c>
+      <c r="V50">
+        <v>634.22400000000005</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-465.42399999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1101.8019999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>810.25900000000001</v>
+      </c>
+      <c r="D51">
+        <v>7198.14</v>
+      </c>
+      <c r="E51">
+        <v>4850.2849999999999</v>
+      </c>
+      <c r="F51">
+        <v>2438.0189999999998</v>
+      </c>
+      <c r="G51">
+        <v>12078.919</v>
+      </c>
+      <c r="H51">
+        <v>16523.758000000002</v>
+      </c>
+      <c r="I51">
+        <v>922.65800000000002</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>7630.6220000000003</v>
+      </c>
+      <c r="O51">
+        <v>10713.698</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>301.99900000000002</v>
+      </c>
+      <c r="R51">
+        <v>41425</v>
+      </c>
+      <c r="S51">
+        <v>266000</v>
+      </c>
+      <c r="T51">
+        <v>5810.06</v>
+      </c>
+      <c r="U51">
+        <v>5938.085</v>
+      </c>
+      <c r="V51">
+        <v>1502.2090000000001</v>
+      </c>
+      <c r="W51">
+        <v>-561.60299999999995</v>
+      </c>
+      <c r="X51">
+        <v>-998.90700000000004</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>810.25800000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>671</v>
+      </c>
+      <c r="D52">
+        <v>7086.6670000000004</v>
+      </c>
+      <c r="E52">
+        <v>4846.5739999999996</v>
+      </c>
+      <c r="F52">
+        <v>2349.6</v>
+      </c>
+      <c r="G52">
+        <v>11844.178</v>
+      </c>
+      <c r="H52">
+        <v>16867.048999999999</v>
+      </c>
+      <c r="I52">
+        <v>961.851</v>
+      </c>
+      <c r="J52">
+        <v>25.6</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>8160.99</v>
+      </c>
+      <c r="O52">
+        <v>11439.22</v>
+      </c>
+      <c r="P52">
+        <v>25.6</v>
+      </c>
+      <c r="Q52">
+        <v>-306.2</v>
+      </c>
+      <c r="R52">
+        <v>41517</v>
+      </c>
+      <c r="S52">
+        <v>275000</v>
+      </c>
+      <c r="T52">
+        <v>5427.8289999999997</v>
+      </c>
+      <c r="U52">
+        <v>5631.8850000000002</v>
+      </c>
+      <c r="V52">
+        <v>1275.51</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-1023.636</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>751.846</v>
+      </c>
+      <c r="D53">
+        <v>7358.7489999999998</v>
+      </c>
+      <c r="E53">
+        <v>5232.58</v>
+      </c>
+      <c r="F53">
+        <v>2449.3470000000002</v>
+      </c>
+      <c r="G53">
+        <v>11291.459000000001</v>
+      </c>
+      <c r="H53">
+        <v>16515.937999999998</v>
+      </c>
+      <c r="I53">
+        <v>982.73299999999995</v>
+      </c>
+      <c r="J53">
+        <v>25.943000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>7828.7430000000004</v>
+      </c>
+      <c r="O53">
+        <v>11099.677</v>
+      </c>
+      <c r="P53">
+        <v>25.943000000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-1104.6869999999999</v>
+      </c>
+      <c r="R53">
+        <v>41608</v>
+      </c>
+      <c r="S53">
+        <v>281000</v>
+      </c>
+      <c r="T53">
+        <v>5416.2610000000004</v>
+      </c>
+      <c r="U53">
+        <v>4527.1980000000003</v>
+      </c>
+      <c r="V53">
+        <v>181.233</v>
+      </c>
+      <c r="W53">
+        <v>-630.23400000000004</v>
+      </c>
+      <c r="X53">
+        <v>-1138.5160000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>751.846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>671.3</v>
+      </c>
+      <c r="D54">
+        <v>7130.6670000000004</v>
+      </c>
+      <c r="E54">
+        <v>5318.6840000000002</v>
+      </c>
+      <c r="F54">
+        <v>2230.1419999999998</v>
+      </c>
+      <c r="G54">
+        <v>10633.88</v>
+      </c>
+      <c r="H54">
+        <v>16357.209000000001</v>
+      </c>
+      <c r="I54">
+        <v>936.31500000000005</v>
+      </c>
+      <c r="J54">
+        <v>26.321999999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>7288.3580000000002</v>
+      </c>
+      <c r="O54">
+        <v>10570.522000000001</v>
+      </c>
+      <c r="P54">
+        <v>26.489000000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-846.92399999999998</v>
+      </c>
+      <c r="R54">
+        <v>41698</v>
+      </c>
+      <c r="S54">
+        <v>289000</v>
+      </c>
+      <c r="T54">
+        <v>5786.6869999999999</v>
+      </c>
+      <c r="U54">
+        <v>3680.2739999999999</v>
+      </c>
+      <c r="V54">
+        <v>292.38</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-576.07899999999995</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>671.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>817.33600000000001</v>
+      </c>
+      <c r="D55">
+        <v>7735.6379999999999</v>
+      </c>
+      <c r="E55">
+        <v>5570.0609999999997</v>
+      </c>
+      <c r="F55">
+        <v>2536.357</v>
+      </c>
+      <c r="G55">
+        <v>11134.692999999999</v>
+      </c>
+      <c r="H55">
+        <v>17002.383999999998</v>
+      </c>
+      <c r="I55">
+        <v>957.63300000000004</v>
+      </c>
+      <c r="J55">
+        <v>26.533999999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>7616.1679999999997</v>
+      </c>
+      <c r="O55">
+        <v>10857.085999999999</v>
+      </c>
+      <c r="P55">
+        <v>26.672999999999998</v>
+      </c>
+      <c r="Q55">
+        <v>368.58499999999998</v>
+      </c>
+      <c r="R55">
+        <v>41790</v>
+      </c>
+      <c r="S55">
+        <v>293000</v>
+      </c>
+      <c r="T55">
+        <v>6145.2979999999998</v>
+      </c>
+      <c r="U55">
+        <v>4048.8589999999999</v>
+      </c>
+      <c r="V55">
+        <v>1363.26</v>
+      </c>
+      <c r="W55">
+        <v>-624.68200000000002</v>
+      </c>
+      <c r="X55">
+        <v>-865.98</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>817.33600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>701.01599999999996</v>
+      </c>
+      <c r="D56">
+        <v>7777.34</v>
+      </c>
+      <c r="E56">
+        <v>5663.3339999999998</v>
+      </c>
+      <c r="F56">
+        <v>2468.62</v>
+      </c>
+      <c r="G56">
+        <v>11904.441999999999</v>
+      </c>
+      <c r="H56">
+        <v>17930.452000000001</v>
+      </c>
+      <c r="I56">
+        <v>1064.2280000000001</v>
+      </c>
+      <c r="J56">
+        <v>26.402999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>8158.0789999999997</v>
+      </c>
+      <c r="O56">
+        <v>11645.115</v>
+      </c>
+      <c r="P56">
+        <v>26.733000000000001</v>
+      </c>
+      <c r="Q56">
+        <v>872.44600000000003</v>
+      </c>
+      <c r="R56">
+        <v>41882</v>
+      </c>
+      <c r="S56">
+        <v>305000</v>
+      </c>
+      <c r="T56">
+        <v>6285.3370000000004</v>
+      </c>
+      <c r="U56">
+        <v>4921.3050000000003</v>
+      </c>
+      <c r="V56">
+        <v>1649.212</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-584.84100000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>701.01599999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>831.53</v>
+      </c>
+      <c r="D57">
+        <v>7895.7150000000001</v>
+      </c>
+      <c r="E57">
+        <v>5654.7280000000001</v>
+      </c>
+      <c r="F57">
+        <v>2539.29</v>
+      </c>
+      <c r="G57">
+        <v>11576.245000000001</v>
+      </c>
+      <c r="H57">
+        <v>17630.032999999999</v>
+      </c>
+      <c r="I57">
+        <v>947.27</v>
+      </c>
+      <c r="J57">
+        <v>26.786000000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>8137.4030000000002</v>
+      </c>
+      <c r="O57">
+        <v>11613.669</v>
+      </c>
+      <c r="P57">
+        <v>26.79</v>
+      </c>
+      <c r="Q57">
+        <v>-448.95800000000003</v>
+      </c>
+      <c r="R57">
+        <v>41973</v>
+      </c>
+      <c r="S57">
+        <v>319000</v>
+      </c>
+      <c r="T57">
+        <v>6016.3639999999996</v>
+      </c>
+      <c r="U57">
+        <v>4472.3469999999998</v>
+      </c>
+      <c r="V57">
+        <v>872.9</v>
+      </c>
+      <c r="W57">
+        <v>-678.73599999999999</v>
+      </c>
+      <c r="X57">
+        <v>-1126.877</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>831.53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>690.726</v>
+      </c>
+      <c r="D58">
+        <v>7493.3289999999997</v>
+      </c>
+      <c r="E58">
+        <v>5426.1779999999999</v>
+      </c>
+      <c r="F58">
+        <v>2240.6390000000001</v>
+      </c>
+      <c r="G58">
+        <v>11007.808000000001</v>
+      </c>
+      <c r="H58">
+        <v>16991.564999999999</v>
+      </c>
+      <c r="I58">
+        <v>984.53899999999999</v>
+      </c>
+      <c r="J58">
+        <v>27.033000000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>7493.9859999999999</v>
+      </c>
+      <c r="O58">
+        <v>10441.922</v>
+      </c>
+      <c r="P58">
+        <v>27.224</v>
+      </c>
+      <c r="Q58">
+        <v>-410.947</v>
+      </c>
+      <c r="R58">
+        <v>42063</v>
+      </c>
+      <c r="S58">
+        <v>323000</v>
+      </c>
+      <c r="T58">
+        <v>6549.643</v>
+      </c>
+      <c r="U58">
+        <v>4061.4</v>
+      </c>
+      <c r="V58">
+        <v>301.28699999999998</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-464.40199999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>690.726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>793.697</v>
+      </c>
+      <c r="D59">
+        <v>7770.3819999999996</v>
+      </c>
+      <c r="E59">
+        <v>5548.1350000000002</v>
+      </c>
+      <c r="F59">
+        <v>2524.9050000000002</v>
+      </c>
+      <c r="G59">
+        <v>11069.521000000001</v>
+      </c>
+      <c r="H59">
+        <v>17308.726999999999</v>
+      </c>
+      <c r="I59">
+        <v>1040.645</v>
+      </c>
+      <c r="J59">
+        <v>27.216999999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>7888.442</v>
+      </c>
+      <c r="O59">
+        <v>10842.495999999999</v>
+      </c>
+      <c r="P59">
+        <v>27.218</v>
+      </c>
+      <c r="Q59">
+        <v>-35.210999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42155</v>
+      </c>
+      <c r="S59">
+        <v>336000</v>
+      </c>
+      <c r="T59">
+        <v>6466.2309999999998</v>
+      </c>
+      <c r="U59">
+        <v>4026.1889999999999</v>
+      </c>
+      <c r="V59">
+        <v>1413.364</v>
+      </c>
+      <c r="W59">
+        <v>-674.73500000000001</v>
+      </c>
+      <c r="X59">
+        <v>-1002.658</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>793.697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>737.62800000000004</v>
+      </c>
+      <c r="D60">
+        <v>7888.5050000000001</v>
+      </c>
+      <c r="E60">
+        <v>5725.424</v>
+      </c>
+      <c r="F60">
+        <v>2504.4050000000002</v>
+      </c>
+      <c r="G60">
+        <v>10700.074000000001</v>
+      </c>
+      <c r="H60">
+        <v>18202.647000000001</v>
+      </c>
+      <c r="I60">
+        <v>1151.4639999999999</v>
+      </c>
+      <c r="J60">
+        <v>25.587</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>8491.0059999999994</v>
+      </c>
+      <c r="O60">
+        <v>11555.075999999999</v>
+      </c>
+      <c r="P60">
+        <v>27.434999999999999</v>
+      </c>
+      <c r="Q60">
+        <v>334.577</v>
+      </c>
+      <c r="R60">
+        <v>42247</v>
+      </c>
+      <c r="S60">
+        <v>358000</v>
+      </c>
+      <c r="T60">
+        <v>6647.5709999999999</v>
+      </c>
+      <c r="U60">
+        <v>4360.7659999999996</v>
+      </c>
+      <c r="V60">
+        <v>1504.586</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-608.35900000000004</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>737.62800000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>818.899</v>
+      </c>
+      <c r="D61">
+        <v>8013.1629999999996</v>
+      </c>
+      <c r="E61">
+        <v>6025.6450000000004</v>
+      </c>
+      <c r="F61">
+        <v>2562.5189999999998</v>
+      </c>
+      <c r="G61">
+        <v>10623.048000000001</v>
+      </c>
+      <c r="H61">
+        <v>17993.875</v>
+      </c>
+      <c r="I61">
+        <v>1094.8209999999999</v>
+      </c>
+      <c r="J61">
+        <v>25.806999999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>8472.3979999999992</v>
+      </c>
+      <c r="O61">
+        <v>11588.463</v>
+      </c>
+      <c r="P61">
+        <v>27.655000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>-1287.5730000000001</v>
+      </c>
+      <c r="R61">
+        <v>42338</v>
+      </c>
+      <c r="S61">
+        <v>373000</v>
+      </c>
+      <c r="T61">
+        <v>6405.4120000000003</v>
+      </c>
+      <c r="U61">
+        <v>3073.1930000000002</v>
+      </c>
+      <c r="V61">
+        <v>643.25699999999995</v>
+      </c>
+      <c r="W61">
+        <v>-720.67600000000004</v>
+      </c>
+      <c r="X61">
+        <v>-1195.9849999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>818.899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>1326.52</v>
+      </c>
+      <c r="D62">
+        <v>7945.5649999999996</v>
+      </c>
+      <c r="E62">
+        <v>6006.5540000000001</v>
+      </c>
+      <c r="F62">
+        <v>2369.8159999999998</v>
+      </c>
+      <c r="G62">
+        <v>10678.8</v>
+      </c>
+      <c r="H62">
+        <v>18147.777999999998</v>
+      </c>
+      <c r="I62">
+        <v>1103.3430000000001</v>
+      </c>
+      <c r="J62">
+        <v>26.866</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>7573.1790000000001</v>
+      </c>
+      <c r="O62">
+        <v>10774.262000000001</v>
+      </c>
+      <c r="P62">
+        <v>28.65</v>
+      </c>
+      <c r="Q62">
+        <v>-38.533999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42429</v>
+      </c>
+      <c r="S62">
+        <v>373000</v>
+      </c>
+      <c r="T62">
+        <v>7373.5159999999996</v>
+      </c>
+      <c r="U62">
+        <v>3034.6590000000001</v>
+      </c>
+      <c r="V62">
+        <v>364.19499999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-720.22</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>1326.52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>897.24699999999996</v>
+      </c>
+      <c r="D63">
+        <v>8434.7569999999996</v>
+      </c>
+      <c r="E63">
+        <v>6440.4780000000001</v>
+      </c>
+      <c r="F63">
+        <v>2689.5520000000001</v>
+      </c>
+      <c r="G63">
+        <v>11576.011</v>
+      </c>
+      <c r="H63">
+        <v>19191.046999999999</v>
+      </c>
+      <c r="I63">
+        <v>1133.43</v>
+      </c>
+      <c r="J63">
+        <v>26.800999999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>8161.1329999999998</v>
+      </c>
+      <c r="O63">
+        <v>11484.489</v>
+      </c>
+      <c r="P63">
+        <v>28.873000000000001</v>
+      </c>
+      <c r="Q63">
+        <v>463.21899999999999</v>
+      </c>
+      <c r="R63">
+        <v>42521</v>
+      </c>
+      <c r="S63">
+        <v>375000</v>
+      </c>
+      <c r="T63">
+        <v>7706.558</v>
+      </c>
+      <c r="U63">
+        <v>3497.8780000000002</v>
+      </c>
+      <c r="V63">
+        <v>1593.989</v>
+      </c>
+      <c r="W63">
+        <v>-717.46199999999999</v>
+      </c>
+      <c r="X63">
+        <v>-974.35500000000002</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>897.24699999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1069.2260000000001</v>
+      </c>
+      <c r="D64">
+        <v>8489.2379999999994</v>
+      </c>
+      <c r="E64">
+        <v>6222.3990000000003</v>
+      </c>
+      <c r="F64">
+        <v>2655.54</v>
+      </c>
+      <c r="G64">
+        <v>11976.222</v>
+      </c>
+      <c r="H64">
+        <v>20609.004000000001</v>
+      </c>
+      <c r="I64">
+        <v>1280.8209999999999</v>
+      </c>
+      <c r="J64">
+        <v>24.457000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>8878.9240000000009</v>
+      </c>
+      <c r="O64">
+        <v>12419.628000000001</v>
+      </c>
+      <c r="P64">
+        <v>27.23</v>
+      </c>
+      <c r="Q64">
+        <v>1407.731</v>
+      </c>
+      <c r="R64">
+        <v>42613</v>
+      </c>
+      <c r="S64">
+        <v>384000</v>
+      </c>
+      <c r="T64">
+        <v>8189.3760000000002</v>
+      </c>
+      <c r="U64">
+        <v>4905.6090000000004</v>
+      </c>
+      <c r="V64">
+        <v>2065.9589999999998</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-598.65800000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-64.225999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>1069.2260000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1004.476</v>
+      </c>
+      <c r="D65">
+        <v>8515.5169999999998</v>
+      </c>
+      <c r="E65">
+        <v>6469.0079999999998</v>
+      </c>
+      <c r="F65">
+        <v>2730.0320000000002</v>
+      </c>
+      <c r="G65">
+        <v>11368.406000000001</v>
+      </c>
+      <c r="H65">
+        <v>20443.741000000002</v>
+      </c>
+      <c r="I65">
+        <v>1163.348</v>
+      </c>
+      <c r="J65">
+        <v>24.562000000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>9170.0820000000003</v>
+      </c>
+      <c r="O65">
+        <v>12409.59</v>
+      </c>
+      <c r="P65">
+        <v>27.335000000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-828.55100000000004</v>
+      </c>
+      <c r="R65">
+        <v>42704</v>
+      </c>
+      <c r="S65">
+        <v>394000</v>
+      </c>
+      <c r="T65">
+        <v>8034.1509999999998</v>
+      </c>
+      <c r="U65">
+        <v>4077.058</v>
+      </c>
+      <c r="V65">
+        <v>1083.8820000000001</v>
+      </c>
+      <c r="W65">
+        <v>-785.12699999999995</v>
+      </c>
+      <c r="X65">
+        <v>-1162.7750000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>1004.476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>838.75199999999995</v>
+      </c>
+      <c r="D66">
+        <v>8317.6710000000003</v>
+      </c>
+      <c r="E66">
+        <v>6563.893</v>
+      </c>
+      <c r="F66">
+        <v>2504.1559999999999</v>
+      </c>
+      <c r="G66">
+        <v>10764.002</v>
+      </c>
+      <c r="H66">
+        <v>20078.773000000001</v>
+      </c>
+      <c r="I66">
+        <v>1212.8</v>
+      </c>
+      <c r="J66">
+        <v>24.545999999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>8352.7729999999992</v>
+      </c>
+      <c r="O66">
+        <v>11463.624</v>
+      </c>
+      <c r="P66">
+        <v>27.49</v>
+      </c>
+      <c r="Q66">
+        <v>-838.19600000000003</v>
+      </c>
+      <c r="R66">
+        <v>42794</v>
+      </c>
+      <c r="S66">
+        <v>401000</v>
+      </c>
+      <c r="T66">
+        <v>8615.1489999999994</v>
+      </c>
+      <c r="U66">
+        <v>3238.8620000000001</v>
+      </c>
+      <c r="V66">
+        <v>154.703</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-681.32</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>838.75199999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>669.46799999999996</v>
+      </c>
+      <c r="D67">
+        <v>8867.0360000000001</v>
+      </c>
+      <c r="E67">
+        <v>6741.7250000000004</v>
+      </c>
+      <c r="F67">
+        <v>2909.6309999999999</v>
+      </c>
+      <c r="G67">
+        <v>11205.735000000001</v>
+      </c>
+      <c r="H67">
+        <v>21135.592000000001</v>
+      </c>
+      <c r="I67">
+        <v>1291.1379999999999</v>
+      </c>
+      <c r="J67">
+        <v>24.731999999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>9154.3250000000007</v>
+      </c>
+      <c r="O67">
+        <v>12258.932000000001</v>
+      </c>
+      <c r="P67">
+        <v>27.673999999999999</v>
+      </c>
+      <c r="Q67">
+        <v>143.346</v>
+      </c>
+      <c r="R67">
+        <v>42886</v>
+      </c>
+      <c r="S67">
+        <v>411000</v>
+      </c>
+      <c r="T67">
+        <v>8876.66</v>
+      </c>
+      <c r="U67">
+        <v>3382.2080000000001</v>
+      </c>
+      <c r="V67">
+        <v>1792.5719999999999</v>
+      </c>
+      <c r="W67">
+        <v>-782.45100000000002</v>
+      </c>
+      <c r="X67">
+        <v>-1123.576</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>669.46799999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>932.45299999999997</v>
+      </c>
+      <c r="D68">
+        <v>9149.9580000000005</v>
+      </c>
+      <c r="E68">
+        <v>6885.2569999999996</v>
+      </c>
+      <c r="F68">
+        <v>2886.6729999999998</v>
+      </c>
+      <c r="G68">
+        <v>12097.289000000001</v>
+      </c>
+      <c r="H68">
+        <v>22689.89</v>
+      </c>
+      <c r="I68">
+        <v>1525.0650000000001</v>
+      </c>
+      <c r="J68">
+        <v>22.163</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>9824.2790000000005</v>
+      </c>
+      <c r="O68">
+        <v>12979.69</v>
+      </c>
+      <c r="P68">
+        <v>25.07</v>
+      </c>
+      <c r="Q68">
+        <v>744.65200000000004</v>
+      </c>
+      <c r="R68">
+        <v>42978</v>
+      </c>
+      <c r="S68">
+        <v>425000</v>
+      </c>
+      <c r="T68">
+        <v>9710.2000000000007</v>
+      </c>
+      <c r="U68">
+        <v>4126.8599999999997</v>
+      </c>
+      <c r="V68">
+        <v>1941.8820000000001</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-592.56399999999996</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-60.982999999999997</v>
+      </c>
+      <c r="AA68">
+        <v>932.45299999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1123.6600000000001</v>
+      </c>
+      <c r="D69">
+        <v>9884.3130000000001</v>
+      </c>
+      <c r="E69">
+        <v>7457.9549999999999</v>
+      </c>
+      <c r="F69">
+        <v>3064.1529999999998</v>
+      </c>
+      <c r="G69">
+        <v>12303.841</v>
+      </c>
+      <c r="H69">
+        <v>22974.152999999998</v>
+      </c>
+      <c r="I69">
+        <v>1316.93</v>
+      </c>
+      <c r="J69">
+        <v>22.225999999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>9863.0259999999998</v>
+      </c>
+      <c r="O69">
+        <v>13080.716</v>
+      </c>
+      <c r="P69">
+        <v>25.204999999999998</v>
+      </c>
+      <c r="Q69">
+        <v>-445.149</v>
+      </c>
+      <c r="R69">
+        <v>43069</v>
+      </c>
+      <c r="S69">
+        <v>435000</v>
+      </c>
+      <c r="T69">
+        <v>9893.4369999999999</v>
+      </c>
+      <c r="U69">
+        <v>3681.7109999999998</v>
+      </c>
+      <c r="V69">
+        <v>1005.838</v>
+      </c>
+      <c r="W69">
+        <v>-853.61400000000003</v>
+      </c>
+      <c r="X69">
+        <v>-1179.02</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>1123.6600000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>863.70299999999997</v>
+      </c>
+      <c r="D70">
+        <v>9909.2379999999994</v>
+      </c>
+      <c r="E70">
+        <v>7511.3010000000004</v>
+      </c>
+      <c r="F70">
+        <v>2859.54</v>
+      </c>
+      <c r="G70">
+        <v>12284.948</v>
+      </c>
+      <c r="H70">
+        <v>23132.978999999999</v>
+      </c>
+      <c r="I70">
+        <v>1367.4639999999999</v>
+      </c>
+      <c r="J70">
+        <v>25.922999999999998</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>9367.9120000000003</v>
+      </c>
+      <c r="O70">
+        <v>12694.553</v>
+      </c>
+      <c r="P70">
+        <v>28.837</v>
+      </c>
+      <c r="Q70">
+        <v>-86.632000000000005</v>
+      </c>
+      <c r="R70">
+        <v>43159</v>
+      </c>
+      <c r="S70">
+        <v>442000</v>
+      </c>
+      <c r="T70">
+        <v>10438.425999999999</v>
+      </c>
+      <c r="U70">
+        <v>3595.0790000000002</v>
+      </c>
+      <c r="V70">
+        <v>924.05700000000002</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-703.20399999999995</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>863.70299999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1043.02</v>
+      </c>
+      <c r="D71">
+        <v>10694.995999999999</v>
+      </c>
+      <c r="E71">
+        <v>7446.6989999999996</v>
+      </c>
+      <c r="F71">
+        <v>3332.0149999999999</v>
+      </c>
+      <c r="G71">
+        <v>12336.871999999999</v>
+      </c>
+      <c r="H71">
+        <v>23250.793000000001</v>
+      </c>
+      <c r="I71">
+        <v>1388.989</v>
+      </c>
+      <c r="J71">
+        <v>25.957999999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>9553.5959999999995</v>
+      </c>
+      <c r="O71">
+        <v>13098.057000000001</v>
+      </c>
+      <c r="P71">
+        <v>28.797999999999998</v>
+      </c>
+      <c r="Q71">
+        <v>333.76600000000002</v>
+      </c>
+      <c r="R71">
+        <v>43251</v>
+      </c>
+      <c r="S71">
+        <v>449000</v>
+      </c>
+      <c r="T71">
+        <v>10152.736000000001</v>
+      </c>
+      <c r="U71">
+        <v>3928.8449999999998</v>
+      </c>
+      <c r="V71">
+        <v>1987.538</v>
+      </c>
+      <c r="W71">
+        <v>-853.83100000000002</v>
+      </c>
+      <c r="X71">
+        <v>-1295.1880000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>1043.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1029.5239999999999</v>
+      </c>
+      <c r="D72">
+        <v>10503.986999999999</v>
+      </c>
+      <c r="E72">
+        <v>7496.3680000000004</v>
+      </c>
+      <c r="F72">
+        <v>3237.6559999999999</v>
+      </c>
+      <c r="G72">
+        <v>13585.558999999999</v>
+      </c>
+      <c r="H72">
+        <v>24449.082999999999</v>
+      </c>
+      <c r="I72">
+        <v>1348.8019999999999</v>
+      </c>
+      <c r="J72">
+        <v>19.675999999999998</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>10151.751</v>
+      </c>
+      <c r="O72">
+        <v>13724.495000000001</v>
+      </c>
+      <c r="P72">
+        <v>25.013000000000002</v>
+      </c>
+      <c r="Q72">
+        <v>1132.5150000000001</v>
+      </c>
+      <c r="R72">
+        <v>43343</v>
+      </c>
+      <c r="S72">
+        <v>459000</v>
+      </c>
+      <c r="T72">
+        <v>10724.588</v>
+      </c>
+      <c r="U72">
+        <v>5061.3599999999997</v>
+      </c>
+      <c r="V72">
+        <v>2109.2579999999998</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-531.61599999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-61.398000000000003</v>
+      </c>
+      <c r="AA72">
+        <v>1029.5239999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1274.72</v>
+      </c>
+      <c r="D73">
+        <v>10605.546</v>
+      </c>
+      <c r="E73">
+        <v>8023.0569999999998</v>
+      </c>
+      <c r="F73">
+        <v>3297.4250000000002</v>
+      </c>
+      <c r="G73">
+        <v>13540.407999999999</v>
+      </c>
+      <c r="H73">
+        <v>26706.412</v>
+      </c>
+      <c r="I73">
+        <v>1355.538</v>
+      </c>
+      <c r="J73">
+        <v>19.896000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="N73">
+        <v>10176.334999999999</v>
+      </c>
+      <c r="O73">
+        <v>13650.843999999999</v>
+      </c>
+      <c r="P73">
+        <v>24.623000000000001</v>
+      </c>
+      <c r="Q73">
+        <v>-697.57</v>
+      </c>
+      <c r="R73">
+        <v>43434</v>
+      </c>
+      <c r="S73">
+        <v>469000</v>
+      </c>
+      <c r="T73">
+        <v>13055.567999999999</v>
+      </c>
+      <c r="U73">
+        <v>4363.79</v>
+      </c>
+      <c r="V73">
+        <v>1027.508</v>
+      </c>
+      <c r="W73">
+        <v>-931.46</v>
+      </c>
+      <c r="X73">
+        <v>-1462.1679999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>1274.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1124.4490000000001</v>
+      </c>
+      <c r="D74">
+        <v>10454.129000000001</v>
+      </c>
+      <c r="E74">
+        <v>8151.4110000000001</v>
+      </c>
+      <c r="F74">
+        <v>3054.3490000000002</v>
+      </c>
+      <c r="G74">
+        <v>13833.3</v>
+      </c>
+      <c r="H74">
+        <v>27390.207999999999</v>
+      </c>
+      <c r="I74">
+        <v>1472.13</v>
+      </c>
+      <c r="J74">
+        <v>19.753</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>10219.049000000001</v>
+      </c>
+      <c r="O74">
+        <v>13661.663</v>
+      </c>
+      <c r="P74">
+        <v>24.117999999999999</v>
+      </c>
+      <c r="Q74">
+        <v>101.099</v>
+      </c>
+      <c r="R74">
+        <v>43524</v>
+      </c>
+      <c r="S74">
+        <v>477000</v>
+      </c>
+      <c r="T74">
+        <v>13728.545</v>
+      </c>
+      <c r="U74">
+        <v>4464.8890000000001</v>
+      </c>
+      <c r="V74">
+        <v>1359.65</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-831.923</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>1124.4490000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1249.5160000000001</v>
+      </c>
+      <c r="D75">
+        <v>11099.688</v>
+      </c>
+      <c r="E75">
+        <v>8134.1469999999999</v>
+      </c>
+      <c r="F75">
+        <v>3528.2979999999998</v>
+      </c>
+      <c r="G75">
+        <v>14141.66</v>
+      </c>
+      <c r="H75">
+        <v>28156.36</v>
+      </c>
+      <c r="I75">
+        <v>1562.9949999999999</v>
+      </c>
+      <c r="J75">
+        <v>19.855</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>10551.986999999999</v>
+      </c>
+      <c r="O75">
+        <v>14013.402</v>
+      </c>
+      <c r="P75">
+        <v>23.992000000000001</v>
+      </c>
+      <c r="Q75">
+        <v>304.26900000000001</v>
+      </c>
+      <c r="R75">
+        <v>43616</v>
+      </c>
+      <c r="S75">
+        <v>482000</v>
+      </c>
+      <c r="T75">
+        <v>14142.958000000001</v>
+      </c>
+      <c r="U75">
+        <v>4769.1580000000004</v>
+      </c>
+      <c r="V75">
+        <v>2123.5419999999999</v>
+      </c>
+      <c r="W75">
+        <v>-930.26499999999999</v>
+      </c>
+      <c r="X75">
+        <v>-1122.0619999999999</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>1249.5160000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1130.4269999999999</v>
+      </c>
+      <c r="D76">
+        <v>11055.65</v>
+      </c>
+      <c r="E76">
+        <v>8095.0709999999999</v>
+      </c>
+      <c r="F76">
+        <v>3434.616</v>
+      </c>
+      <c r="G76">
+        <v>15450.601000000001</v>
+      </c>
+      <c r="H76">
+        <v>29789.88</v>
+      </c>
+      <c r="I76">
+        <v>1646.6410000000001</v>
+      </c>
+      <c r="J76">
+        <v>16.247</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>11061.896000000001</v>
+      </c>
+      <c r="O76">
+        <v>14962.189</v>
+      </c>
+      <c r="P76">
+        <v>22.658000000000001</v>
+      </c>
+      <c r="Q76">
+        <v>1357.6949999999999</v>
+      </c>
+      <c r="R76">
+        <v>43708</v>
+      </c>
+      <c r="S76">
+        <v>492000</v>
+      </c>
+      <c r="T76">
+        <v>14827.691000000001</v>
+      </c>
+      <c r="U76">
+        <v>6126.8530000000001</v>
+      </c>
+      <c r="V76">
+        <v>2116.2530000000002</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-351.01799999999997</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-23.027000000000001</v>
+      </c>
+      <c r="AA76">
+        <v>1130.4269999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1356.9680000000001</v>
+      </c>
+      <c r="D77">
+        <v>11358.958000000001</v>
+      </c>
+      <c r="E77">
+        <v>8577.3860000000004</v>
+      </c>
+      <c r="F77">
+        <v>3647.759</v>
+      </c>
+      <c r="G77">
+        <v>15606.103999999999</v>
+      </c>
+      <c r="H77">
+        <v>33170.712</v>
+      </c>
+      <c r="I77">
+        <v>1581.1120000000001</v>
+      </c>
+      <c r="J77">
+        <v>15.935</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="N77">
+        <v>11199.407999999999</v>
+      </c>
+      <c r="O77">
+        <v>17569.504000000001</v>
+      </c>
+      <c r="P77">
+        <v>3382.0709999999999</v>
+      </c>
+      <c r="Q77">
+        <v>-316.31599999999997</v>
+      </c>
+      <c r="R77">
+        <v>43799</v>
+      </c>
+      <c r="S77">
+        <v>505000</v>
+      </c>
+      <c r="T77">
+        <v>15601.208000000001</v>
+      </c>
+      <c r="U77">
+        <v>5810.5370000000003</v>
+      </c>
+      <c r="V77">
+        <v>786.91099999999994</v>
+      </c>
+      <c r="W77">
+        <v>-507.72500000000002</v>
+      </c>
+      <c r="X77">
+        <v>-948.22400000000005</v>
+      </c>
+      <c r="Y77">
+        <v>2651.6509999999998</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>1356.9680000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1234.74</v>
+      </c>
+      <c r="D78">
+        <v>11141.504999999999</v>
+      </c>
+      <c r="E78">
+        <v>8517.9490000000005</v>
+      </c>
+      <c r="F78">
+        <v>3359.1709999999998</v>
+      </c>
+      <c r="G78">
+        <v>15405.293</v>
+      </c>
+      <c r="H78">
+        <v>33503.43</v>
+      </c>
+      <c r="I78">
+        <v>1526.135</v>
+      </c>
+      <c r="J78">
+        <v>13.183</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>11177.575000000001</v>
+      </c>
+      <c r="O78">
+        <v>17582.624</v>
+      </c>
+      <c r="P78">
+        <v>3410.2089999999998</v>
+      </c>
+      <c r="Q78">
+        <v>-374.08100000000002</v>
+      </c>
+      <c r="R78">
+        <v>43890</v>
+      </c>
+      <c r="S78">
+        <v>509000</v>
+      </c>
+      <c r="T78">
+        <v>15920.806</v>
+      </c>
+      <c r="U78">
+        <v>5436.4560000000001</v>
+      </c>
+      <c r="V78">
+        <v>1530.6410000000001</v>
+      </c>
+      <c r="W78">
+        <v>-510.60399999999998</v>
+      </c>
+      <c r="X78">
+        <v>-1289.2760000000001</v>
+      </c>
+      <c r="Y78">
+        <v>2652.5479999999998</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>1234.74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1228.202</v>
+      </c>
+      <c r="D79">
+        <v>10991.305</v>
+      </c>
+      <c r="E79">
+        <v>8345.6010000000006</v>
+      </c>
+      <c r="F79">
+        <v>3528.6880000000001</v>
+      </c>
+      <c r="G79">
+        <v>16146.236000000001</v>
+      </c>
+      <c r="H79">
+        <v>35057.319000000003</v>
+      </c>
+      <c r="I79">
+        <v>1405.9770000000001</v>
+      </c>
+      <c r="J79">
+        <v>60.341999999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>11828.281000000001</v>
+      </c>
+      <c r="O79">
+        <v>18573.673999999999</v>
+      </c>
+      <c r="P79">
+        <v>3512.221</v>
+      </c>
+      <c r="Q79">
+        <v>1005.8049999999999</v>
+      </c>
+      <c r="R79">
+        <v>43982</v>
+      </c>
+      <c r="S79">
+        <v>513000</v>
+      </c>
+      <c r="T79">
+        <v>16483.645</v>
+      </c>
+      <c r="U79">
+        <v>6442.2610000000004</v>
+      </c>
+      <c r="V79">
+        <v>2741.4659999999999</v>
+      </c>
+      <c r="W79">
+        <v>-508.28300000000002</v>
+      </c>
+      <c r="X79">
+        <v>-798.05</v>
+      </c>
+      <c r="Y79">
+        <v>2704.54</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>1228.202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1287.9290000000001</v>
+      </c>
+      <c r="D80">
+        <v>10835.271000000001</v>
+      </c>
+      <c r="E80">
+        <v>7846.8919999999998</v>
+      </c>
+      <c r="F80">
+        <v>3440.54</v>
+      </c>
+      <c r="G80">
+        <v>17749.756000000001</v>
+      </c>
+      <c r="H80">
+        <v>37078.593000000001</v>
+      </c>
+      <c r="I80">
+        <v>1349.874</v>
+      </c>
+      <c r="J80">
+        <v>54.052</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>12662.59</v>
+      </c>
+      <c r="O80">
+        <v>19579.419999999998</v>
+      </c>
+      <c r="P80">
+        <v>3485.5129999999999</v>
+      </c>
+      <c r="Q80">
+        <v>1973.069</v>
+      </c>
+      <c r="R80">
+        <v>44074</v>
+      </c>
+      <c r="S80">
+        <v>506000</v>
+      </c>
+      <c r="T80">
+        <v>17499.172999999999</v>
+      </c>
+      <c r="U80">
+        <v>8415.33</v>
+      </c>
+      <c r="V80">
+        <v>3156.134</v>
+      </c>
+      <c r="W80">
+        <v>-508.58600000000001</v>
+      </c>
+      <c r="X80">
+        <v>-1013.542</v>
+      </c>
+      <c r="Y80">
+        <v>2667.5839999999998</v>
+      </c>
+      <c r="Z80">
+        <v>-17.689</v>
+      </c>
+      <c r="AA80">
+        <v>1287.9290000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>1500.2760000000001</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>11762.184999999999</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>8547.7109999999993</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>3898.2959999999998</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>18626.094000000001</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>38268.311000000002</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>1513.442</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>59.881</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="N42">
+      <c r="N81">
         <v>12819.099</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>19842.095000000001</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>3428.8690000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>178.673</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44165</v>
       </c>
-      <c r="S42">
+      <c r="S81">
         <v>514000</v>
       </c>
-      <c r="T42">
+      <c r="T81">
         <v>18426.216</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>8594.0030000000006</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>1602.845</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-557.41899999999998</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-999.45100000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>2627.1849999999999</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>1500.2760000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>1440.8589999999999</v>
+      </c>
+      <c r="D82">
+        <v>12088.125</v>
+      </c>
+      <c r="E82">
+        <v>8725.3919999999998</v>
+      </c>
+      <c r="F82">
+        <v>3595.232</v>
+      </c>
+      <c r="G82">
+        <v>19560.72</v>
+      </c>
+      <c r="H82">
+        <v>39985.400999999998</v>
+      </c>
+      <c r="I82">
+        <v>1740.395</v>
+      </c>
+      <c r="J82">
+        <v>59.323</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>14090.668</v>
+      </c>
+      <c r="O82">
+        <v>21142.973999999998</v>
+      </c>
+      <c r="P82">
+        <v>3474.39</v>
+      </c>
+      <c r="Q82">
+        <v>572.57500000000005</v>
+      </c>
+      <c r="R82">
+        <v>44255</v>
+      </c>
+      <c r="S82">
+        <v>537000</v>
+      </c>
+      <c r="T82">
+        <v>18842.427</v>
+      </c>
+      <c r="U82">
+        <v>9166.5779999999995</v>
+      </c>
+      <c r="V82">
+        <v>2534.721</v>
+      </c>
+      <c r="W82">
+        <v>-560.42499999999995</v>
+      </c>
+      <c r="X82">
+        <v>-1546.7329999999999</v>
+      </c>
+      <c r="Y82">
+        <v>2672.9450000000002</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>1440.8589999999999</v>
       </c>
     </row>
   </sheetData>
